--- a/地图/地图.xlsx
+++ b/地图/地图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D65881-BC05-4EBA-9FBB-00D7C815557A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36774D3-1833-4F63-82D2-6F42337E7697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门1钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +56,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -99,13 +123,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -114,10 +141,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -135,6 +162,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5CD5BD-E804-4F44-BA8D-00BBE8C9D326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312920" y="3710940"/>
+          <a:ext cx="190500" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF117"/>
+  <dimension ref="A1:BA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:D72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5:AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="4.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -441,7 +526,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -470,11 +555,32 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+    </row>
+    <row r="3" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -503,11 +609,32 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -535,11 +662,32 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+    </row>
+    <row r="5" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -547,31 +695,52 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="4"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+    </row>
+    <row r="6" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -579,31 +748,52 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="4"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="5"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="2"/>
+    </row>
+    <row r="7" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -611,31 +801,52 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="4"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="5"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="5"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -651,11 +862,11 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -663,11 +874,32 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+    </row>
+    <row r="9" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -683,11 +915,11 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -695,11 +927,32 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -715,11 +968,11 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -727,11 +980,32 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -747,11 +1021,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -759,11 +1033,32 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+    </row>
+    <row r="12" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -779,11 +1074,11 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -791,11 +1086,32 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -811,11 +1127,11 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -823,11 +1139,32 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -835,19 +1172,19 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -855,11 +1192,32 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -867,19 +1225,19 @@
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -887,11 +1245,32 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+    </row>
+    <row r="16" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -899,19 +1278,19 @@
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -919,13 +1298,34 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+    </row>
+    <row r="17" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -939,11 +1339,11 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -951,13 +1351,34 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+    </row>
+    <row r="18" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -971,11 +1392,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -983,13 +1404,34 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+    </row>
+    <row r="19" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1003,11 +1445,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1015,28 +1457,49 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+    </row>
+    <row r="20" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="8"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="7"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -1047,28 +1510,49 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+    </row>
+    <row r="21" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="8"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="7"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -1079,28 +1563,49 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+    </row>
+    <row r="22" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="8"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="7"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -1111,11 +1616,32 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+    </row>
+    <row r="23" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
@@ -1130,24 +1656,45 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="8"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="8"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+    </row>
+    <row r="24" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -1162,24 +1709,45 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="8"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+    </row>
+    <row r="25" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -1194,26 +1762,47 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+    </row>
+    <row r="26" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
@@ -1226,26 +1815,47 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+    </row>
+    <row r="27" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -1258,26 +1868,47 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="8"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+    </row>
+    <row r="28" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -1290,24 +1921,45 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="8"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+    </row>
+    <row r="29" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -1324,22 +1976,43 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="7"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="8"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+    </row>
+    <row r="30" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -1356,22 +2029,43 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="2"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+    </row>
+    <row r="31" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -1388,22 +2082,43 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="7"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="2"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="8"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+    </row>
+    <row r="32" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -1415,27 +2130,48 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="7"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="8"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+    </row>
+    <row r="33" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
@@ -1447,27 +2183,48 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="7"/>
+      <c r="S33" s="8"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="7"/>
+      <c r="X33" s="8"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+    </row>
+    <row r="34" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -1479,27 +2236,48 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="7"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="8"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+    </row>
+    <row r="35" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
@@ -1515,23 +2293,46 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="8"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="2"/>
+    </row>
+    <row r="36" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
@@ -1547,23 +2348,44 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="8"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="2"/>
+    </row>
+    <row r="37" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
@@ -1579,23 +2401,44 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="4"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="8"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="2"/>
+    </row>
+    <row r="38" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1612,22 +2455,43 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="7"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="8"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="2"/>
+    </row>
+    <row r="39" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1644,22 +2508,43 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="7"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="8"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-    </row>
-    <row r="40" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="2"/>
+    </row>
+    <row r="40" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1676,22 +2561,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="7"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="8"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-    </row>
-    <row r="41" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="2"/>
+    </row>
+    <row r="41" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
@@ -1700,7 +2606,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="5"/>
       <c r="L41" s="3"/>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
@@ -1712,18 +2618,39 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-    </row>
-    <row r="42" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="2"/>
+    </row>
+    <row r="42" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
@@ -1732,7 +2659,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="5"/>
       <c r="L42" s="3"/>
       <c r="M42" s="2"/>
       <c r="N42" s="3"/>
@@ -1744,18 +2671,39 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="2"/>
+    </row>
+    <row r="43" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
@@ -1764,7 +2712,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="5"/>
       <c r="L43" s="3"/>
       <c r="M43" s="2"/>
       <c r="N43" s="3"/>
@@ -1776,18 +2724,39 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-    </row>
-    <row r="44" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="2"/>
+    </row>
+    <row r="44" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
@@ -1808,18 +2777,39 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-    </row>
-    <row r="45" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="2"/>
+    </row>
+    <row r="45" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
@@ -1840,18 +2830,39 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="2"/>
+    </row>
+    <row r="46" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
@@ -1872,18 +2883,39 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="2"/>
+    </row>
+    <row r="47" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
@@ -1902,20 +2934,43 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="5"/>
+      <c r="U47" s="4"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="2"/>
+    </row>
+    <row r="48" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
@@ -1934,20 +2989,41 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="5"/>
+      <c r="U48" s="4"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="2"/>
+    </row>
+    <row r="49" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
@@ -1966,29 +3042,50 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="5"/>
+      <c r="U49" s="4"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="2"/>
+    </row>
+    <row r="50" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -1997,30 +3094,51 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="4"/>
+      <c r="T50" s="5"/>
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="4"/>
+      <c r="X50" s="5"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="2"/>
+    </row>
+    <row r="51" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -2029,30 +3147,51 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="4"/>
+      <c r="T51" s="5"/>
       <c r="U51" s="2"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="4"/>
+      <c r="X51" s="5"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="6"/>
+      <c r="BA51" s="2"/>
+    </row>
+    <row r="52" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -2061,21 +3200,42 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="4"/>
+      <c r="T52" s="5"/>
       <c r="U52" s="2"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="4"/>
+      <c r="X52" s="5"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="2"/>
+    </row>
+    <row r="53" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2103,11 +3263,32 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+    </row>
+    <row r="54" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2135,11 +3316,32 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+    </row>
+    <row r="55" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2167,11 +3369,32 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+    </row>
+    <row r="56" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2203,7 +3426,7 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
     </row>
-    <row r="57" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2235,7 +3458,7 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
     </row>
-    <row r="58" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2267,7 +3490,7 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
     </row>
-    <row r="59" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2281,9 +3504,11 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="P59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -2299,7 +3524,7 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
     </row>
-    <row r="60" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2313,9 +3538,9 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -2331,7 +3556,7 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
     </row>
-    <row r="61" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2345,9 +3570,9 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -2363,7 +3588,7 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
     </row>
-    <row r="62" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2395,7 +3620,7 @@
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
     </row>
-    <row r="63" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2427,7 +3652,7 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
     </row>
-    <row r="64" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
@@ -2522,7 +3747,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -2533,14 +3758,14 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="5"/>
+      <c r="R67" s="4"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="4"/>
+      <c r="V67" s="5"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="4"/>
+      <c r="Y67" s="5"/>
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,7 +3773,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -2559,14 +3784,14 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="5"/>
+      <c r="R68" s="4"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="4"/>
+      <c r="V68" s="5"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="4"/>
+      <c r="Y68" s="5"/>
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +3799,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -2585,14 +3810,14 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="5"/>
+      <c r="R69" s="4"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="4"/>
+      <c r="V69" s="5"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="4"/>
+      <c r="Y69" s="5"/>
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,7 +3910,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="4"/>
+      <c r="N73" s="5"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -2711,7 +3936,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="4"/>
+      <c r="N74" s="5"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -2737,7 +3962,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="4"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -2770,7 +3995,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="4"/>
+      <c r="U76" s="5"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
@@ -2796,7 +4021,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="4"/>
+      <c r="U77" s="5"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
@@ -2822,7 +4047,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="4"/>
+      <c r="U78" s="5"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
@@ -2843,7 +4068,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="4"/>
+      <c r="P79" s="5"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="3"/>
       <c r="S79" s="2"/>
@@ -2869,7 +4094,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="4"/>
+      <c r="P80" s="5"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="3"/>
       <c r="S80" s="2"/>
@@ -2895,7 +4120,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="4"/>
+      <c r="P81" s="5"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="3"/>
       <c r="S81" s="2"/>
@@ -2992,7 +4217,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="5"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3018,7 +4243,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="5"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -3044,7 +4269,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="5"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -3073,7 +4298,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="5"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -3086,7 +4311,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-      <c r="Y88" s="4"/>
+      <c r="Y88" s="5"/>
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +4324,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="4"/>
+      <c r="L89" s="5"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -3112,7 +4337,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-      <c r="Y89" s="4"/>
+      <c r="Y89" s="5"/>
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +4350,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="4"/>
+      <c r="L90" s="5"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -3138,7 +4363,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-      <c r="Y90" s="4"/>
+      <c r="Y90" s="5"/>
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3221,7 +4446,7 @@
     </row>
     <row r="94" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3247,7 +4472,7 @@
     </row>
     <row r="95" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3273,7 +4498,7 @@
     </row>
     <row r="96" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3309,9 +4534,9 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="3"/>
-      <c r="N97" s="5"/>
+      <c r="N97" s="4"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="4"/>
+      <c r="P97" s="5"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="3"/>
@@ -3335,9 +4560,9 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="5"/>
+      <c r="N98" s="4"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="4"/>
+      <c r="P98" s="5"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="3"/>
@@ -3361,9 +4586,9 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="5"/>
+      <c r="N99" s="4"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="4"/>
+      <c r="P99" s="5"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="3"/>
@@ -3377,12 +4602,12 @@
     </row>
     <row r="100" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="4"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="5"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -3396,19 +4621,19 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="4"/>
+      <c r="W100" s="5"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="4"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="5"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -3422,19 +4647,19 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="4"/>
+      <c r="W101" s="5"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="4"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -3448,7 +4673,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="4"/>
+      <c r="W102" s="5"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="2"/>
@@ -3464,13 +4689,13 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="10"/>
+      <c r="M103" s="6"/>
       <c r="N103" s="3"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="4"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
@@ -3490,13 +4715,13 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="10"/>
+      <c r="M104" s="6"/>
       <c r="N104" s="3"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="4"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
@@ -3516,13 +4741,13 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="10"/>
+      <c r="M105" s="6"/>
       <c r="N105" s="3"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="4"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -3544,7 +4769,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="5"/>
+      <c r="O106" s="4"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
@@ -3570,7 +4795,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="O107" s="5"/>
+      <c r="O107" s="4"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
@@ -3596,7 +4821,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
-      <c r="O108" s="5"/>
+      <c r="O108" s="4"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
@@ -3689,7 +4914,7 @@
     </row>
     <row r="112" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -3710,12 +4935,12 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
       <c r="X112" s="3"/>
-      <c r="Y112" s="4"/>
+      <c r="Y112" s="5"/>
       <c r="Z112" s="2"/>
     </row>
     <row r="113" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -3736,12 +4961,12 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
       <c r="X113" s="3"/>
-      <c r="Y113" s="4"/>
+      <c r="Y113" s="5"/>
       <c r="Z113" s="2"/>
     </row>
     <row r="114" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3762,7 +4987,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
       <c r="X114" s="3"/>
-      <c r="Y114" s="4"/>
+      <c r="Y114" s="5"/>
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,7 +5069,1281 @@
       <c r="Z117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="865">
+  <mergeCells count="1298">
+    <mergeCell ref="AV53:AV55"/>
+    <mergeCell ref="AW53:AW55"/>
+    <mergeCell ref="AX53:AX55"/>
+    <mergeCell ref="AY53:AY55"/>
+    <mergeCell ref="AZ53:AZ55"/>
+    <mergeCell ref="BA53:BA55"/>
+    <mergeCell ref="P59:R61"/>
+    <mergeCell ref="AV50:AV52"/>
+    <mergeCell ref="AW50:AW52"/>
+    <mergeCell ref="AX50:AX52"/>
+    <mergeCell ref="AY50:AY52"/>
+    <mergeCell ref="AZ50:AZ52"/>
+    <mergeCell ref="BA50:BA52"/>
+    <mergeCell ref="AD53:AD55"/>
+    <mergeCell ref="AE53:AE55"/>
+    <mergeCell ref="AF53:AF55"/>
+    <mergeCell ref="AG53:AG55"/>
+    <mergeCell ref="AH53:AH55"/>
+    <mergeCell ref="AI53:AI55"/>
+    <mergeCell ref="AJ53:AJ55"/>
+    <mergeCell ref="AK53:AK55"/>
+    <mergeCell ref="AL53:AL55"/>
+    <mergeCell ref="AM53:AM55"/>
+    <mergeCell ref="AN53:AN55"/>
+    <mergeCell ref="AO53:AO55"/>
+    <mergeCell ref="AP53:AP55"/>
+    <mergeCell ref="AQ53:AQ55"/>
+    <mergeCell ref="AR53:AR55"/>
+    <mergeCell ref="AS53:AS55"/>
+    <mergeCell ref="AT53:AT55"/>
+    <mergeCell ref="AU53:AU55"/>
+    <mergeCell ref="AV47:AV49"/>
+    <mergeCell ref="AW47:AW49"/>
+    <mergeCell ref="AX47:AX49"/>
+    <mergeCell ref="AY47:AY49"/>
+    <mergeCell ref="AZ47:AZ49"/>
+    <mergeCell ref="BA47:BA49"/>
+    <mergeCell ref="AD50:AD52"/>
+    <mergeCell ref="AE50:AE52"/>
+    <mergeCell ref="AF50:AF52"/>
+    <mergeCell ref="AG50:AG52"/>
+    <mergeCell ref="AH50:AH52"/>
+    <mergeCell ref="AI50:AI52"/>
+    <mergeCell ref="AJ50:AJ52"/>
+    <mergeCell ref="AK50:AK52"/>
+    <mergeCell ref="AL50:AL52"/>
+    <mergeCell ref="AM50:AM52"/>
+    <mergeCell ref="AN50:AN52"/>
+    <mergeCell ref="AO50:AO52"/>
+    <mergeCell ref="AP50:AP52"/>
+    <mergeCell ref="AQ50:AQ52"/>
+    <mergeCell ref="AR50:AR52"/>
+    <mergeCell ref="AS50:AS52"/>
+    <mergeCell ref="AT50:AT52"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV44:AV46"/>
+    <mergeCell ref="AW44:AW46"/>
+    <mergeCell ref="AX44:AX46"/>
+    <mergeCell ref="AY44:AY46"/>
+    <mergeCell ref="AZ44:AZ46"/>
+    <mergeCell ref="BA44:BA46"/>
+    <mergeCell ref="AD47:AD49"/>
+    <mergeCell ref="AE47:AE49"/>
+    <mergeCell ref="AF47:AF49"/>
+    <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="AH47:AH49"/>
+    <mergeCell ref="AI47:AI49"/>
+    <mergeCell ref="AJ47:AJ49"/>
+    <mergeCell ref="AK47:AK49"/>
+    <mergeCell ref="AL47:AL49"/>
+    <mergeCell ref="AM47:AM49"/>
+    <mergeCell ref="AN47:AN49"/>
+    <mergeCell ref="AO47:AO49"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AQ47:AQ49"/>
+    <mergeCell ref="AR47:AR49"/>
+    <mergeCell ref="AS47:AS49"/>
+    <mergeCell ref="AT47:AT49"/>
+    <mergeCell ref="AU47:AU49"/>
+    <mergeCell ref="AV41:AV43"/>
+    <mergeCell ref="AW41:AW43"/>
+    <mergeCell ref="AX41:AX43"/>
+    <mergeCell ref="AY41:AY43"/>
+    <mergeCell ref="AZ41:AZ43"/>
+    <mergeCell ref="BA41:BA43"/>
+    <mergeCell ref="AD44:AD46"/>
+    <mergeCell ref="AE44:AE46"/>
+    <mergeCell ref="AF44:AF46"/>
+    <mergeCell ref="AG44:AG46"/>
+    <mergeCell ref="AH44:AH46"/>
+    <mergeCell ref="AI44:AI46"/>
+    <mergeCell ref="AJ44:AJ46"/>
+    <mergeCell ref="AK44:AK46"/>
+    <mergeCell ref="AL44:AL46"/>
+    <mergeCell ref="AM44:AM46"/>
+    <mergeCell ref="AN44:AN46"/>
+    <mergeCell ref="AO44:AO46"/>
+    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="AQ44:AQ46"/>
+    <mergeCell ref="AR44:AR46"/>
+    <mergeCell ref="AS44:AS46"/>
+    <mergeCell ref="AT44:AT46"/>
+    <mergeCell ref="AU44:AU46"/>
+    <mergeCell ref="AV38:AV40"/>
+    <mergeCell ref="AW38:AW40"/>
+    <mergeCell ref="AX38:AX40"/>
+    <mergeCell ref="AY38:AY40"/>
+    <mergeCell ref="AZ38:AZ40"/>
+    <mergeCell ref="BA38:BA40"/>
+    <mergeCell ref="AD41:AD43"/>
+    <mergeCell ref="AE41:AE43"/>
+    <mergeCell ref="AF41:AF43"/>
+    <mergeCell ref="AG41:AG43"/>
+    <mergeCell ref="AH41:AH43"/>
+    <mergeCell ref="AI41:AI43"/>
+    <mergeCell ref="AJ41:AJ43"/>
+    <mergeCell ref="AK41:AK43"/>
+    <mergeCell ref="AL41:AL43"/>
+    <mergeCell ref="AM41:AM43"/>
+    <mergeCell ref="AN41:AN43"/>
+    <mergeCell ref="AO41:AO43"/>
+    <mergeCell ref="AP41:AP43"/>
+    <mergeCell ref="AQ41:AQ43"/>
+    <mergeCell ref="AR41:AR43"/>
+    <mergeCell ref="AS41:AS43"/>
+    <mergeCell ref="AT41:AT43"/>
+    <mergeCell ref="AU41:AU43"/>
+    <mergeCell ref="AV35:AV37"/>
+    <mergeCell ref="AW35:AW37"/>
+    <mergeCell ref="AX35:AX37"/>
+    <mergeCell ref="AY35:AY37"/>
+    <mergeCell ref="AZ35:AZ37"/>
+    <mergeCell ref="BA35:BA37"/>
+    <mergeCell ref="AD38:AD40"/>
+    <mergeCell ref="AE38:AE40"/>
+    <mergeCell ref="AF38:AF40"/>
+    <mergeCell ref="AG38:AG40"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="AI38:AI40"/>
+    <mergeCell ref="AJ38:AJ40"/>
+    <mergeCell ref="AK38:AK40"/>
+    <mergeCell ref="AL38:AL40"/>
+    <mergeCell ref="AM38:AM40"/>
+    <mergeCell ref="AN38:AN40"/>
+    <mergeCell ref="AO38:AO40"/>
+    <mergeCell ref="AP38:AP40"/>
+    <mergeCell ref="AQ38:AQ40"/>
+    <mergeCell ref="AR38:AR40"/>
+    <mergeCell ref="AS38:AS40"/>
+    <mergeCell ref="AT38:AT40"/>
+    <mergeCell ref="AU38:AU40"/>
+    <mergeCell ref="AV32:AV34"/>
+    <mergeCell ref="AW32:AW34"/>
+    <mergeCell ref="AX32:AX34"/>
+    <mergeCell ref="AY32:AY34"/>
+    <mergeCell ref="AZ32:AZ34"/>
+    <mergeCell ref="BA32:BA34"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="AF35:AF37"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="AL35:AL37"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AP35:AP37"/>
+    <mergeCell ref="AQ35:AQ37"/>
+    <mergeCell ref="AR35:AR37"/>
+    <mergeCell ref="AS35:AS37"/>
+    <mergeCell ref="AT35:AT37"/>
+    <mergeCell ref="AU35:AU37"/>
+    <mergeCell ref="AV29:AV31"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="AX29:AX31"/>
+    <mergeCell ref="AY29:AY31"/>
+    <mergeCell ref="AZ29:AZ31"/>
+    <mergeCell ref="BA29:BA31"/>
+    <mergeCell ref="AD32:AD34"/>
+    <mergeCell ref="AE32:AE34"/>
+    <mergeCell ref="AF32:AF34"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AH32:AH34"/>
+    <mergeCell ref="AI32:AI34"/>
+    <mergeCell ref="AJ32:AJ34"/>
+    <mergeCell ref="AK32:AK34"/>
+    <mergeCell ref="AL32:AL34"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AN32:AN34"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ32:AQ34"/>
+    <mergeCell ref="AR32:AR34"/>
+    <mergeCell ref="AS32:AS34"/>
+    <mergeCell ref="AT32:AT34"/>
+    <mergeCell ref="AU32:AU34"/>
+    <mergeCell ref="AV26:AV28"/>
+    <mergeCell ref="AW26:AW28"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AZ26:AZ28"/>
+    <mergeCell ref="BA26:BA28"/>
+    <mergeCell ref="AD29:AD31"/>
+    <mergeCell ref="AE29:AE31"/>
+    <mergeCell ref="AF29:AF31"/>
+    <mergeCell ref="AG29:AG31"/>
+    <mergeCell ref="AH29:AH31"/>
+    <mergeCell ref="AI29:AI31"/>
+    <mergeCell ref="AJ29:AJ31"/>
+    <mergeCell ref="AK29:AK31"/>
+    <mergeCell ref="AL29:AL31"/>
+    <mergeCell ref="AM29:AM31"/>
+    <mergeCell ref="AN29:AN31"/>
+    <mergeCell ref="AO29:AO31"/>
+    <mergeCell ref="AP29:AP31"/>
+    <mergeCell ref="AQ29:AQ31"/>
+    <mergeCell ref="AR29:AR31"/>
+    <mergeCell ref="AS29:AS31"/>
+    <mergeCell ref="AT29:AT31"/>
+    <mergeCell ref="AU29:AU31"/>
+    <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="AW23:AW25"/>
+    <mergeCell ref="AX23:AX25"/>
+    <mergeCell ref="AY23:AY25"/>
+    <mergeCell ref="AZ23:AZ25"/>
+    <mergeCell ref="BA23:BA25"/>
+    <mergeCell ref="AD26:AD28"/>
+    <mergeCell ref="AE26:AE28"/>
+    <mergeCell ref="AF26:AF28"/>
+    <mergeCell ref="AG26:AG28"/>
+    <mergeCell ref="AH26:AH28"/>
+    <mergeCell ref="AI26:AI28"/>
+    <mergeCell ref="AJ26:AJ28"/>
+    <mergeCell ref="AK26:AK28"/>
+    <mergeCell ref="AL26:AL28"/>
+    <mergeCell ref="AM26:AM28"/>
+    <mergeCell ref="AN26:AN28"/>
+    <mergeCell ref="AO26:AO28"/>
+    <mergeCell ref="AP26:AP28"/>
+    <mergeCell ref="AQ26:AQ28"/>
+    <mergeCell ref="AR26:AR28"/>
+    <mergeCell ref="AS26:AS28"/>
+    <mergeCell ref="AT26:AT28"/>
+    <mergeCell ref="AU26:AU28"/>
+    <mergeCell ref="AV20:AV22"/>
+    <mergeCell ref="AW20:AW22"/>
+    <mergeCell ref="AX20:AX22"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BA20:BA22"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AM23:AM25"/>
+    <mergeCell ref="AN23:AN25"/>
+    <mergeCell ref="AO23:AO25"/>
+    <mergeCell ref="AP23:AP25"/>
+    <mergeCell ref="AQ23:AQ25"/>
+    <mergeCell ref="AR23:AR25"/>
+    <mergeCell ref="AS23:AS25"/>
+    <mergeCell ref="AT23:AT25"/>
+    <mergeCell ref="AU23:AU25"/>
+    <mergeCell ref="AV17:AV19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="AX17:AX19"/>
+    <mergeCell ref="AY17:AY19"/>
+    <mergeCell ref="AZ17:AZ19"/>
+    <mergeCell ref="BA17:BA19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AE20:AE22"/>
+    <mergeCell ref="AF20:AF22"/>
+    <mergeCell ref="AG20:AG22"/>
+    <mergeCell ref="AH20:AH22"/>
+    <mergeCell ref="AI20:AI22"/>
+    <mergeCell ref="AJ20:AJ22"/>
+    <mergeCell ref="AK20:AK22"/>
+    <mergeCell ref="AL20:AL22"/>
+    <mergeCell ref="AM20:AM22"/>
+    <mergeCell ref="AN20:AN22"/>
+    <mergeCell ref="AO20:AO22"/>
+    <mergeCell ref="AP20:AP22"/>
+    <mergeCell ref="AQ20:AQ22"/>
+    <mergeCell ref="AR20:AR22"/>
+    <mergeCell ref="AS20:AS22"/>
+    <mergeCell ref="AT20:AT22"/>
+    <mergeCell ref="AU20:AU22"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AX14:AX16"/>
+    <mergeCell ref="AY14:AY16"/>
+    <mergeCell ref="AZ14:AZ16"/>
+    <mergeCell ref="BA14:BA16"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AJ17:AJ19"/>
+    <mergeCell ref="AK17:AK19"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AM17:AM19"/>
+    <mergeCell ref="AN17:AN19"/>
+    <mergeCell ref="AO17:AO19"/>
+    <mergeCell ref="AP17:AP19"/>
+    <mergeCell ref="AQ17:AQ19"/>
+    <mergeCell ref="AR17:AR19"/>
+    <mergeCell ref="AS17:AS19"/>
+    <mergeCell ref="AT17:AT19"/>
+    <mergeCell ref="AU17:AU19"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BA11:BA13"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AK14:AK16"/>
+    <mergeCell ref="AL14:AL16"/>
+    <mergeCell ref="AM14:AM16"/>
+    <mergeCell ref="AN14:AN16"/>
+    <mergeCell ref="AO14:AO16"/>
+    <mergeCell ref="AP14:AP16"/>
+    <mergeCell ref="AQ14:AQ16"/>
+    <mergeCell ref="AR14:AR16"/>
+    <mergeCell ref="AS14:AS16"/>
+    <mergeCell ref="AT14:AT16"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AX8:AX10"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AZ8:AZ10"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="AY5:AY7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AI8:AI10"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="AO8:AO10"/>
+    <mergeCell ref="AP8:AP10"/>
+    <mergeCell ref="AQ8:AQ10"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AT8:AT10"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Z53:Z55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="Z50:Z52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Z44:Z46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="Z41:Z43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Z38:Z40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Z32:Z34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Z29:Z31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="Z26:Z28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="Y67:Y69"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="S64:S66"/>
+    <mergeCell ref="T64:T66"/>
+    <mergeCell ref="U64:U66"/>
+    <mergeCell ref="V64:V66"/>
+    <mergeCell ref="W64:W66"/>
+    <mergeCell ref="X64:X66"/>
+    <mergeCell ref="Y64:Y66"/>
+    <mergeCell ref="Y70:Y72"/>
+    <mergeCell ref="Z64:Z66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="T67:T69"/>
+    <mergeCell ref="U67:U69"/>
+    <mergeCell ref="V67:V69"/>
+    <mergeCell ref="W67:W69"/>
+    <mergeCell ref="X67:X69"/>
+    <mergeCell ref="Y73:Y75"/>
+    <mergeCell ref="Z67:Z69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O70:O72"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="Q70:Q72"/>
+    <mergeCell ref="R70:R72"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="T70:T72"/>
+    <mergeCell ref="U70:U72"/>
+    <mergeCell ref="V70:V72"/>
+    <mergeCell ref="W70:W72"/>
+    <mergeCell ref="X70:X72"/>
+    <mergeCell ref="Y76:Y78"/>
+    <mergeCell ref="Z70:Z72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:N75"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="Q73:Q75"/>
+    <mergeCell ref="R73:R75"/>
+    <mergeCell ref="S73:S75"/>
+    <mergeCell ref="T73:T75"/>
+    <mergeCell ref="U73:U75"/>
+    <mergeCell ref="V73:V75"/>
+    <mergeCell ref="W73:W75"/>
+    <mergeCell ref="X73:X75"/>
+    <mergeCell ref="Y79:Y81"/>
+    <mergeCell ref="Z73:Z75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="S76:S78"/>
+    <mergeCell ref="T76:T78"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="V76:V78"/>
+    <mergeCell ref="W76:W78"/>
+    <mergeCell ref="X76:X78"/>
+    <mergeCell ref="Y82:Y84"/>
+    <mergeCell ref="Z76:Z78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="M79:M81"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="P79:P81"/>
+    <mergeCell ref="Q79:Q81"/>
+    <mergeCell ref="R79:R81"/>
+    <mergeCell ref="S79:S81"/>
+    <mergeCell ref="T79:T81"/>
+    <mergeCell ref="U79:U81"/>
+    <mergeCell ref="V79:V81"/>
+    <mergeCell ref="W79:W81"/>
+    <mergeCell ref="X79:X81"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z79:Z81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="N82:N84"/>
+    <mergeCell ref="O82:O84"/>
+    <mergeCell ref="P82:P84"/>
+    <mergeCell ref="Q82:Q84"/>
+    <mergeCell ref="R82:R84"/>
+    <mergeCell ref="S82:S84"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="U82:U84"/>
+    <mergeCell ref="V82:V84"/>
+    <mergeCell ref="W82:W84"/>
+    <mergeCell ref="X82:X84"/>
+    <mergeCell ref="Y88:Y90"/>
+    <mergeCell ref="Z82:Z84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y91:Y93"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="P88:P90"/>
+    <mergeCell ref="Q88:Q90"/>
+    <mergeCell ref="R88:R90"/>
+    <mergeCell ref="S88:S90"/>
+    <mergeCell ref="T88:T90"/>
+    <mergeCell ref="U88:U90"/>
+    <mergeCell ref="V88:V90"/>
+    <mergeCell ref="W88:W90"/>
+    <mergeCell ref="X88:X90"/>
+    <mergeCell ref="Y94:Y96"/>
+    <mergeCell ref="Z88:Z90"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="N91:N93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="S91:S93"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="U91:U93"/>
+    <mergeCell ref="V91:V93"/>
+    <mergeCell ref="W91:W93"/>
+    <mergeCell ref="X91:X93"/>
+    <mergeCell ref="Y97:Y99"/>
+    <mergeCell ref="Z91:Z93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="M94:M96"/>
+    <mergeCell ref="N94:N96"/>
+    <mergeCell ref="O94:O96"/>
+    <mergeCell ref="P94:P96"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="S94:S96"/>
+    <mergeCell ref="T94:T96"/>
+    <mergeCell ref="U94:U96"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="W94:W96"/>
+    <mergeCell ref="X94:X96"/>
+    <mergeCell ref="Y100:Y102"/>
+    <mergeCell ref="Z94:Z96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="M97:M99"/>
+    <mergeCell ref="N97:N99"/>
+    <mergeCell ref="O97:O99"/>
+    <mergeCell ref="P97:P99"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R97:R99"/>
+    <mergeCell ref="S97:S99"/>
+    <mergeCell ref="T97:T99"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="V97:V99"/>
+    <mergeCell ref="W97:W99"/>
+    <mergeCell ref="X97:X99"/>
+    <mergeCell ref="Y103:Y105"/>
+    <mergeCell ref="Z97:Z99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="N100:N102"/>
+    <mergeCell ref="O100:O102"/>
+    <mergeCell ref="P100:P102"/>
+    <mergeCell ref="Q100:Q102"/>
+    <mergeCell ref="R100:R102"/>
+    <mergeCell ref="S100:S102"/>
+    <mergeCell ref="T100:T102"/>
+    <mergeCell ref="U100:U102"/>
+    <mergeCell ref="V100:V102"/>
+    <mergeCell ref="W100:W102"/>
+    <mergeCell ref="X100:X102"/>
+    <mergeCell ref="Y106:Y108"/>
+    <mergeCell ref="Z100:Z102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="N103:N105"/>
+    <mergeCell ref="O103:O105"/>
+    <mergeCell ref="P103:P105"/>
+    <mergeCell ref="Q103:Q105"/>
+    <mergeCell ref="R103:R105"/>
+    <mergeCell ref="S103:S105"/>
+    <mergeCell ref="T103:T105"/>
+    <mergeCell ref="U103:U105"/>
+    <mergeCell ref="V103:V105"/>
+    <mergeCell ref="W103:W105"/>
+    <mergeCell ref="X103:X105"/>
+    <mergeCell ref="Y109:Y111"/>
+    <mergeCell ref="Z103:Z105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="M106:M108"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="O106:O108"/>
+    <mergeCell ref="P106:P108"/>
+    <mergeCell ref="Q106:Q108"/>
+    <mergeCell ref="R106:R108"/>
+    <mergeCell ref="S106:S108"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="U106:U108"/>
+    <mergeCell ref="V106:V108"/>
+    <mergeCell ref="W106:W108"/>
+    <mergeCell ref="X106:X108"/>
+    <mergeCell ref="Y112:Y114"/>
+    <mergeCell ref="Z106:Z108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="M109:M111"/>
+    <mergeCell ref="N109:N111"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="P109:P111"/>
+    <mergeCell ref="Q109:Q111"/>
+    <mergeCell ref="R109:R111"/>
+    <mergeCell ref="S109:S111"/>
+    <mergeCell ref="T109:T111"/>
+    <mergeCell ref="U109:U111"/>
+    <mergeCell ref="V109:V111"/>
+    <mergeCell ref="W109:W111"/>
+    <mergeCell ref="X109:X111"/>
+    <mergeCell ref="Y115:Y117"/>
+    <mergeCell ref="Z109:Z111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="L112:L114"/>
+    <mergeCell ref="M112:M114"/>
+    <mergeCell ref="N112:N114"/>
+    <mergeCell ref="O112:O114"/>
+    <mergeCell ref="P112:P114"/>
+    <mergeCell ref="Q112:Q114"/>
+    <mergeCell ref="R112:R114"/>
+    <mergeCell ref="S112:S114"/>
+    <mergeCell ref="T112:T114"/>
+    <mergeCell ref="U112:U114"/>
+    <mergeCell ref="V112:V114"/>
+    <mergeCell ref="W112:W114"/>
+    <mergeCell ref="X112:X114"/>
     <mergeCell ref="Z115:Z117"/>
     <mergeCell ref="Z112:Z114"/>
     <mergeCell ref="C115:C117"/>
@@ -3869,850 +6368,10 @@
     <mergeCell ref="V115:V117"/>
     <mergeCell ref="W115:W117"/>
     <mergeCell ref="X115:X117"/>
-    <mergeCell ref="Y115:Y117"/>
-    <mergeCell ref="Z109:Z111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="G112:G114"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
-    <mergeCell ref="L112:L114"/>
-    <mergeCell ref="M112:M114"/>
-    <mergeCell ref="N112:N114"/>
-    <mergeCell ref="O112:O114"/>
-    <mergeCell ref="P112:P114"/>
-    <mergeCell ref="Q112:Q114"/>
-    <mergeCell ref="R112:R114"/>
-    <mergeCell ref="S112:S114"/>
-    <mergeCell ref="T112:T114"/>
-    <mergeCell ref="U112:U114"/>
-    <mergeCell ref="V112:V114"/>
-    <mergeCell ref="W112:W114"/>
-    <mergeCell ref="X112:X114"/>
-    <mergeCell ref="Y112:Y114"/>
-    <mergeCell ref="Z106:Z108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="M109:M111"/>
-    <mergeCell ref="N109:N111"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="P109:P111"/>
-    <mergeCell ref="Q109:Q111"/>
-    <mergeCell ref="R109:R111"/>
-    <mergeCell ref="S109:S111"/>
-    <mergeCell ref="T109:T111"/>
-    <mergeCell ref="U109:U111"/>
-    <mergeCell ref="V109:V111"/>
-    <mergeCell ref="W109:W111"/>
-    <mergeCell ref="X109:X111"/>
-    <mergeCell ref="Y109:Y111"/>
-    <mergeCell ref="Z103:Z105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="M106:M108"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="O106:O108"/>
-    <mergeCell ref="P106:P108"/>
-    <mergeCell ref="Q106:Q108"/>
-    <mergeCell ref="R106:R108"/>
-    <mergeCell ref="S106:S108"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="U106:U108"/>
-    <mergeCell ref="V106:V108"/>
-    <mergeCell ref="W106:W108"/>
-    <mergeCell ref="X106:X108"/>
-    <mergeCell ref="Y106:Y108"/>
-    <mergeCell ref="Z100:Z102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="M103:M105"/>
-    <mergeCell ref="N103:N105"/>
-    <mergeCell ref="O103:O105"/>
-    <mergeCell ref="P103:P105"/>
-    <mergeCell ref="Q103:Q105"/>
-    <mergeCell ref="R103:R105"/>
-    <mergeCell ref="S103:S105"/>
-    <mergeCell ref="T103:T105"/>
-    <mergeCell ref="U103:U105"/>
-    <mergeCell ref="V103:V105"/>
-    <mergeCell ref="W103:W105"/>
-    <mergeCell ref="X103:X105"/>
-    <mergeCell ref="Y103:Y105"/>
-    <mergeCell ref="Z97:Z99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="M100:M102"/>
-    <mergeCell ref="N100:N102"/>
-    <mergeCell ref="O100:O102"/>
-    <mergeCell ref="P100:P102"/>
-    <mergeCell ref="Q100:Q102"/>
-    <mergeCell ref="R100:R102"/>
-    <mergeCell ref="S100:S102"/>
-    <mergeCell ref="T100:T102"/>
-    <mergeCell ref="U100:U102"/>
-    <mergeCell ref="V100:V102"/>
-    <mergeCell ref="W100:W102"/>
-    <mergeCell ref="X100:X102"/>
-    <mergeCell ref="Y100:Y102"/>
-    <mergeCell ref="Z94:Z96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="L97:L99"/>
-    <mergeCell ref="M97:M99"/>
-    <mergeCell ref="N97:N99"/>
-    <mergeCell ref="O97:O99"/>
-    <mergeCell ref="P97:P99"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R97:R99"/>
-    <mergeCell ref="S97:S99"/>
-    <mergeCell ref="T97:T99"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="V97:V99"/>
-    <mergeCell ref="W97:W99"/>
-    <mergeCell ref="X97:X99"/>
-    <mergeCell ref="Y97:Y99"/>
-    <mergeCell ref="Z91:Z93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="M94:M96"/>
-    <mergeCell ref="N94:N96"/>
-    <mergeCell ref="O94:O96"/>
-    <mergeCell ref="P94:P96"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="S94:S96"/>
-    <mergeCell ref="T94:T96"/>
-    <mergeCell ref="U94:U96"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="W94:W96"/>
-    <mergeCell ref="X94:X96"/>
-    <mergeCell ref="Y94:Y96"/>
-    <mergeCell ref="Z88:Z90"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="M91:M93"/>
-    <mergeCell ref="N91:N93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="S91:S93"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="U91:U93"/>
-    <mergeCell ref="V91:V93"/>
-    <mergeCell ref="W91:W93"/>
-    <mergeCell ref="X91:X93"/>
-    <mergeCell ref="Y91:Y93"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="P88:P90"/>
-    <mergeCell ref="Q88:Q90"/>
-    <mergeCell ref="R88:R90"/>
-    <mergeCell ref="S88:S90"/>
-    <mergeCell ref="T88:T90"/>
-    <mergeCell ref="U88:U90"/>
-    <mergeCell ref="V88:V90"/>
-    <mergeCell ref="W88:W90"/>
-    <mergeCell ref="X88:X90"/>
-    <mergeCell ref="Y88:Y90"/>
-    <mergeCell ref="Z82:Z84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z79:Z81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="N82:N84"/>
-    <mergeCell ref="O82:O84"/>
-    <mergeCell ref="P82:P84"/>
-    <mergeCell ref="Q82:Q84"/>
-    <mergeCell ref="R82:R84"/>
-    <mergeCell ref="S82:S84"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="U82:U84"/>
-    <mergeCell ref="V82:V84"/>
-    <mergeCell ref="W82:W84"/>
-    <mergeCell ref="X82:X84"/>
-    <mergeCell ref="Y82:Y84"/>
-    <mergeCell ref="Z76:Z78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="L79:L81"/>
-    <mergeCell ref="M79:M81"/>
-    <mergeCell ref="N79:N81"/>
-    <mergeCell ref="O79:O81"/>
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="Q79:Q81"/>
-    <mergeCell ref="R79:R81"/>
-    <mergeCell ref="S79:S81"/>
-    <mergeCell ref="T79:T81"/>
-    <mergeCell ref="U79:U81"/>
-    <mergeCell ref="V79:V81"/>
-    <mergeCell ref="W79:W81"/>
-    <mergeCell ref="X79:X81"/>
-    <mergeCell ref="Y79:Y81"/>
-    <mergeCell ref="Z73:Z75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="O76:O78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="S76:S78"/>
-    <mergeCell ref="T76:T78"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="V76:V78"/>
-    <mergeCell ref="W76:W78"/>
-    <mergeCell ref="X76:X78"/>
-    <mergeCell ref="Y76:Y78"/>
-    <mergeCell ref="Z70:Z72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:N75"/>
-    <mergeCell ref="O73:O75"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="Q73:Q75"/>
-    <mergeCell ref="R73:R75"/>
-    <mergeCell ref="S73:S75"/>
-    <mergeCell ref="T73:T75"/>
-    <mergeCell ref="U73:U75"/>
-    <mergeCell ref="V73:V75"/>
-    <mergeCell ref="W73:W75"/>
-    <mergeCell ref="X73:X75"/>
-    <mergeCell ref="Y73:Y75"/>
-    <mergeCell ref="Z67:Z69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O70:O72"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="Q70:Q72"/>
-    <mergeCell ref="R70:R72"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="T70:T72"/>
-    <mergeCell ref="U70:U72"/>
-    <mergeCell ref="V70:V72"/>
-    <mergeCell ref="W70:W72"/>
-    <mergeCell ref="X70:X72"/>
-    <mergeCell ref="Y70:Y72"/>
-    <mergeCell ref="Z64:Z66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="R67:R69"/>
-    <mergeCell ref="S67:S69"/>
-    <mergeCell ref="T67:T69"/>
-    <mergeCell ref="U67:U69"/>
-    <mergeCell ref="V67:V69"/>
-    <mergeCell ref="W67:W69"/>
-    <mergeCell ref="X67:X69"/>
-    <mergeCell ref="Y67:Y69"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="S64:S66"/>
-    <mergeCell ref="T64:T66"/>
-    <mergeCell ref="U64:U66"/>
-    <mergeCell ref="V64:V66"/>
-    <mergeCell ref="W64:W66"/>
-    <mergeCell ref="X64:X66"/>
-    <mergeCell ref="Y64:Y66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="N64:N66"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="Z26:Z28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Z29:Z31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Z32:Z34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Z38:Z40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="Z41:Z43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Z44:Z46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Z50:Z52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Z53:Z55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/地图/地图.xlsx
+++ b/地图/地图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36774D3-1833-4F63-82D2-6F42337E7697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5925FE8-C473-47FF-B339-6F37B2264958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>门1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门2钥匙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +103,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -112,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,29 +133,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +213,59 @@
         <a:xfrm>
           <a:off x="4312920" y="3710940"/>
           <a:ext cx="190500" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451C9E15-EF23-4640-8440-B8F05AD12DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13395960" y="358140"/>
+          <a:ext cx="403860" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -485,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA117"/>
+  <dimension ref="A1:BB117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5:AZ7"/>
+      <selection activeCell="AV76" sqref="AV76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="4.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -526,179 +598,182 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="8"/>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-    </row>
-    <row r="3" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+    </row>
+    <row r="3" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-    </row>
-    <row r="4" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+    </row>
+    <row r="4" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-    </row>
-    <row r="5" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -708,27 +783,27 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="2"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="12"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="12"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="6"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="4"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="2"/>
-      <c r="AQ5" s="6"/>
+      <c r="AQ5" s="4"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
@@ -737,21 +812,22 @@
       <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="2"/>
-    </row>
-    <row r="6" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="14"/>
+    </row>
+    <row r="6" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -761,27 +837,27 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="5"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="2"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="12"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="6"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="4"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="6"/>
+      <c r="AQ6" s="4"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
@@ -790,21 +866,22 @@
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="2"/>
-    </row>
-    <row r="7" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="14"/>
+    </row>
+    <row r="7" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -814,27 +891,27 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="2"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="12"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="12"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="6"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="4"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="6"/>
+      <c r="AQ7" s="4"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
@@ -843,17 +920,18 @@
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="2"/>
-    </row>
-    <row r="8" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="14"/>
+    </row>
+    <row r="8" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -870,43 +948,44 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="12"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="2"/>
+      <c r="AF8" s="12"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="2"/>
+      <c r="AK8" s="12"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-    </row>
-    <row r="9" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="14"/>
+    </row>
+    <row r="9" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -923,43 +1002,44 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="12"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="2"/>
+      <c r="AF9" s="12"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="2"/>
+      <c r="AK9" s="12"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-    </row>
-    <row r="10" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="14"/>
+    </row>
+    <row r="10" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -976,43 +1056,44 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="12"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="2"/>
+      <c r="AF10" s="12"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="2"/>
+      <c r="AK10" s="12"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-    </row>
-    <row r="11" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="14"/>
+    </row>
+    <row r="11" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1029,18 +1110,18 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="12"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="2"/>
+      <c r="AK11" s="12"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
@@ -1049,23 +1130,24 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="4"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="6"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-    </row>
-    <row r="12" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="14"/>
+    </row>
+    <row r="12" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1082,18 +1164,18 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="2"/>
+      <c r="AK12" s="12"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
@@ -1102,23 +1184,24 @@
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="4"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="6"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-    </row>
-    <row r="13" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="14"/>
+    </row>
+    <row r="13" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1135,18 +1218,18 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="12"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="2"/>
+      <c r="AK13" s="12"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
@@ -1155,31 +1238,32 @@
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="4"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="6"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-    </row>
-    <row r="14" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="14"/>
+    </row>
+    <row r="14" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -1188,51 +1272,52 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="2"/>
+      <c r="AD14" s="12"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="12"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="12"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
       <c r="AS14" s="3"/>
-      <c r="AT14" s="2"/>
+      <c r="AT14" s="12"/>
       <c r="AU14" s="3"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-    </row>
-    <row r="15" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="14"/>
+    </row>
+    <row r="15" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -1241,51 +1326,52 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="12"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="12"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-      <c r="AK15" s="2"/>
+      <c r="AK15" s="12"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
       <c r="AS15" s="3"/>
-      <c r="AT15" s="2"/>
+      <c r="AT15" s="12"/>
       <c r="AU15" s="3"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-    </row>
-    <row r="16" spans="1:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="14"/>
+    </row>
+    <row r="16" spans="1:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -1294,43 +1380,44 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="12"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="12"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="AK16" s="2"/>
+      <c r="AK16" s="12"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
       <c r="AS16" s="3"/>
-      <c r="AT16" s="2"/>
+      <c r="AT16" s="12"/>
       <c r="AU16" s="3"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-    </row>
-    <row r="17" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="14"/>
+    </row>
+    <row r="17" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1347,13 +1434,13 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="2"/>
+      <c r="AD17" s="12"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="12"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -1367,23 +1454,24 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="3"/>
-      <c r="AT17" s="2"/>
+      <c r="AT17" s="12"/>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
-      <c r="AY17" s="5"/>
+      <c r="AY17" s="7"/>
       <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-    </row>
-    <row r="18" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="14"/>
+    </row>
+    <row r="18" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1400,13 +1488,13 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="2"/>
+      <c r="AD18" s="12"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="2"/>
+      <c r="AF18" s="12"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -1420,23 +1508,24 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="3"/>
-      <c r="AT18" s="2"/>
+      <c r="AT18" s="12"/>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
-      <c r="AY18" s="5"/>
+      <c r="AY18" s="7"/>
       <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-    </row>
-    <row r="19" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="14"/>
+    </row>
+    <row r="19" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1453,13 +1542,13 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="2"/>
+      <c r="AD19" s="12"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="12"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
@@ -1473,28 +1562,29 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="3"/>
-      <c r="AT19" s="2"/>
+      <c r="AT19" s="12"/>
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
-      <c r="AY19" s="5"/>
+      <c r="AY19" s="7"/>
       <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-    </row>
-    <row r="20" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="14"/>
+    </row>
+    <row r="20" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="9"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1506,14 +1596,14 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="12"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="6"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="4"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
@@ -1526,28 +1616,29 @@
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
-      <c r="AT20" s="2"/>
+      <c r="AT20" s="12"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="3"/>
       <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-    </row>
-    <row r="21" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="14"/>
+    </row>
+    <row r="21" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="9"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1559,14 +1650,14 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="2"/>
+      <c r="AD21" s="12"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="6"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="4"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
@@ -1579,28 +1670,28 @@
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
-      <c r="AT21" s="2"/>
+      <c r="AT21" s="12"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="3"/>
       <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-    </row>
-    <row r="22" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+      <c r="BA21" s="12"/>
+    </row>
+    <row r="22" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1612,14 +1703,14 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="2"/>
+      <c r="AD22" s="12"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="6"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="4"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -1632,31 +1723,31 @@
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
-      <c r="AT22" s="2"/>
+      <c r="AT22" s="12"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
       <c r="AY22" s="3"/>
       <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-    </row>
-    <row r="23" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
+      <c r="BA22" s="12"/>
+    </row>
+    <row r="23" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="8"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="3"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
@@ -1665,13 +1756,13 @@
       <c r="W23" s="3"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="2"/>
+      <c r="AD23" s="12"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="2"/>
+      <c r="AF23" s="12"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -1683,33 +1774,33 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
       <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-    </row>
-    <row r="24" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+      <c r="BA23" s="12"/>
+    </row>
+    <row r="24" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="8"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="3"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
@@ -1718,13 +1809,13 @@
       <c r="W24" s="3"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="2"/>
+      <c r="AD24" s="12"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="2"/>
+      <c r="AF24" s="12"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -1736,33 +1827,33 @@
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
       <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-    </row>
-    <row r="25" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
+      <c r="BA24" s="12"/>
+    </row>
+    <row r="25" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="12"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="8"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="3"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
@@ -1771,13 +1862,13 @@
       <c r="W25" s="3"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="2"/>
+      <c r="AD25" s="12"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="2"/>
+      <c r="AF25" s="12"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -1789,22 +1880,22 @@
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
       <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-    </row>
-    <row r="26" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="BA25" s="12"/>
+    </row>
+    <row r="26" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1815,7 +1906,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -1824,40 +1915,40 @@
       <c r="W26" s="3"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="2"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
       <c r="AY26" s="3"/>
       <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-    </row>
-    <row r="27" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="BA26" s="12"/>
+    </row>
+    <row r="27" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1868,7 +1959,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -1877,40 +1968,40 @@
       <c r="W27" s="3"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="12"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-    </row>
-    <row r="28" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="BA27" s="12"/>
+    </row>
+    <row r="28" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="12"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1921,7 +2012,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -1930,71 +2021,71 @@
       <c r="W28" s="3"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="2"/>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="2"/>
+      <c r="AD28" s="12"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-    </row>
-    <row r="29" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+      <c r="BA28" s="12"/>
+    </row>
+    <row r="29" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="2"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="2"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="2"/>
+      <c r="AD29" s="12"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="2"/>
+      <c r="AF29" s="12"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="3"/>
-      <c r="AK29" s="5"/>
+      <c r="AK29" s="7"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
@@ -2004,50 +2095,50 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
+      <c r="AU29" s="12"/>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
+      <c r="AW29" s="12"/>
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
       <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-    </row>
-    <row r="30" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
+      <c r="BA29" s="12"/>
+    </row>
+    <row r="30" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="2"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="12"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="2"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="2"/>
+      <c r="AD30" s="12"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="2"/>
+      <c r="AF30" s="12"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="5"/>
+      <c r="AK30" s="7"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
@@ -2057,50 +2148,50 @@
       <c r="AR30" s="2"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
+      <c r="AU30" s="12"/>
       <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
+      <c r="AW30" s="12"/>
       <c r="AX30" s="3"/>
       <c r="AY30" s="3"/>
       <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-    </row>
-    <row r="31" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
+      <c r="BA30" s="12"/>
+    </row>
+    <row r="31" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="2"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="2"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="2"/>
+      <c r="AD31" s="12"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="2"/>
+      <c r="AF31" s="12"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="5"/>
+      <c r="AK31" s="7"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
@@ -2110,16 +2201,16 @@
       <c r="AR31" s="2"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
+      <c r="AU31" s="12"/>
       <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
+      <c r="AW31" s="12"/>
       <c r="AX31" s="3"/>
       <c r="AY31" s="3"/>
       <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-    </row>
-    <row r="32" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
+      <c r="BA31" s="12"/>
+    </row>
+    <row r="32" spans="3:54" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="12"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
@@ -2130,7 +2221,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2142,37 +2233,37 @@
       <c r="W32" s="3"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="2"/>
+      <c r="AD32" s="12"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="5"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
+      <c r="AL32" s="12"/>
       <c r="AM32" s="3"/>
-      <c r="AN32" s="2"/>
+      <c r="AN32" s="12"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="2"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="12"/>
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
       <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
+      <c r="BA32" s="12"/>
     </row>
     <row r="33" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
@@ -2183,7 +2274,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2195,37 +2286,37 @@
       <c r="W33" s="3"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="2"/>
+      <c r="AD33" s="12"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="5"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="7"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
+      <c r="AL33" s="12"/>
       <c r="AM33" s="3"/>
-      <c r="AN33" s="2"/>
+      <c r="AN33" s="12"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="2"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="12"/>
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
+      <c r="BA33" s="12"/>
     </row>
     <row r="34" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -2236,7 +2327,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2248,37 +2339,37 @@
       <c r="W34" s="3"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="2"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="2"/>
+      <c r="AD34" s="12"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="5"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="7"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
+      <c r="AL34" s="12"/>
       <c r="AM34" s="3"/>
-      <c r="AN34" s="2"/>
+      <c r="AN34" s="12"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="6"/>
-      <c r="AW34" s="2"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="12"/>
       <c r="AX34" s="3"/>
       <c r="AY34" s="3"/>
       <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
+      <c r="BA34" s="12"/>
     </row>
     <row r="35" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -2293,47 +2384,47 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="5"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="4"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="2"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="2"/>
+      <c r="AD35" s="12"/>
       <c r="AE35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF35" s="2"/>
+      <c r="AF35" s="12"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="2"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="12"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
+      <c r="AU35" s="12"/>
       <c r="AV35" s="3"/>
-      <c r="AW35" s="2"/>
+      <c r="AW35" s="12"/>
       <c r="AX35" s="3"/>
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3"/>
-      <c r="BA35" s="2"/>
+      <c r="BA35" s="12"/>
     </row>
     <row r="36" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -2348,45 +2439,45 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="5"/>
+      <c r="R36" s="7"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="4"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="2"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="2"/>
+      <c r="AD36" s="12"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="2"/>
+      <c r="AF36" s="12"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="2"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="12"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
+      <c r="AU36" s="12"/>
       <c r="AV36" s="3"/>
-      <c r="AW36" s="2"/>
+      <c r="AW36" s="12"/>
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
-      <c r="BA36" s="2"/>
+      <c r="BA36" s="12"/>
     </row>
     <row r="37" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -2401,45 +2492,45 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="7"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="4"/>
+      <c r="T37" s="6"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="2"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="2"/>
+      <c r="AD37" s="12"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="2"/>
+      <c r="AF37" s="12"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="2"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="12"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
+      <c r="AU37" s="12"/>
       <c r="AV37" s="3"/>
-      <c r="AW37" s="2"/>
+      <c r="AW37" s="12"/>
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
       <c r="AZ37" s="3"/>
-      <c r="BA37" s="2"/>
+      <c r="BA37" s="12"/>
     </row>
     <row r="38" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2459,24 +2550,24 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="5"/>
+      <c r="W38" s="7"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="2"/>
+      <c r="AD38" s="12"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="2"/>
+      <c r="AF38" s="12"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="4"/>
+      <c r="AI38" s="6"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
@@ -2485,14 +2576,14 @@
       <c r="AT38" s="2"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
-      <c r="AW38" s="2"/>
+      <c r="AW38" s="12"/>
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
       <c r="AZ38" s="3"/>
-      <c r="BA38" s="2"/>
+      <c r="BA38" s="12"/>
     </row>
     <row r="39" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2512,24 +2603,24 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="5"/>
+      <c r="W39" s="7"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="2"/>
+      <c r="AD39" s="12"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="2"/>
+      <c r="AF39" s="12"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AI39" s="4"/>
+      <c r="AI39" s="6"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
@@ -2538,14 +2629,14 @@
       <c r="AT39" s="2"/>
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
-      <c r="AW39" s="2"/>
+      <c r="AW39" s="12"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
       <c r="AZ39" s="3"/>
-      <c r="BA39" s="2"/>
+      <c r="BA39" s="12"/>
     </row>
     <row r="40" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2565,24 +2656,24 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="5"/>
+      <c r="W40" s="7"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="2"/>
+      <c r="Z40" s="12"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="2"/>
+      <c r="AD40" s="12"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="2"/>
+      <c r="AF40" s="12"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AI40" s="4"/>
+      <c r="AI40" s="6"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
@@ -2591,22 +2682,22 @@
       <c r="AT40" s="2"/>
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
-      <c r="AW40" s="2"/>
+      <c r="AW40" s="12"/>
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
-      <c r="BA40" s="2"/>
+      <c r="BA40" s="12"/>
     </row>
     <row r="41" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="3"/>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
@@ -2618,23 +2709,23 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="2"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="2"/>
+      <c r="AD41" s="12"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="2"/>
+      <c r="AF41" s="12"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" s="4"/>
+      <c r="AM41" s="6"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
@@ -2644,22 +2735,22 @@
       <c r="AT41" s="2"/>
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
-      <c r="AW41" s="2"/>
+      <c r="AW41" s="12"/>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
-      <c r="BA41" s="2"/>
+      <c r="BA41" s="12"/>
     </row>
     <row r="42" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="3"/>
       <c r="M42" s="2"/>
       <c r="N42" s="3"/>
@@ -2671,23 +2762,23 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="2"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="2"/>
+      <c r="AD42" s="12"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="2"/>
+      <c r="AF42" s="12"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" s="4"/>
+      <c r="AM42" s="6"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
@@ -2697,22 +2788,22 @@
       <c r="AT42" s="2"/>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
-      <c r="AW42" s="2"/>
+      <c r="AW42" s="12"/>
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
-      <c r="BA42" s="2"/>
+      <c r="BA42" s="12"/>
     </row>
     <row r="43" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="3"/>
       <c r="M43" s="2"/>
       <c r="N43" s="3"/>
@@ -2724,23 +2815,23 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="2"/>
+      <c r="Z43" s="12"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="2"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="2"/>
+      <c r="AF43" s="12"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" s="4"/>
+      <c r="AM43" s="6"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
@@ -2750,43 +2841,43 @@
       <c r="AT43" s="2"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="2"/>
+      <c r="AW43" s="12"/>
       <c r="AX43" s="3"/>
       <c r="AY43" s="3"/>
       <c r="AZ43" s="3"/>
-      <c r="BA43" s="2"/>
+      <c r="BA43" s="12"/>
     </row>
     <row r="44" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="2"/>
+      <c r="Z44" s="12"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="2"/>
+      <c r="AD44" s="12"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="2"/>
+      <c r="AF44" s="12"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
@@ -2803,43 +2894,43 @@
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="2"/>
+      <c r="AW44" s="12"/>
       <c r="AX44" s="3"/>
       <c r="AY44" s="3"/>
       <c r="AZ44" s="3"/>
-      <c r="BA44" s="2"/>
+      <c r="BA44" s="12"/>
     </row>
     <row r="45" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="12"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="2"/>
+      <c r="AD45" s="12"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="2"/>
+      <c r="AF45" s="12"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
@@ -2856,43 +2947,43 @@
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
-      <c r="AW45" s="2"/>
+      <c r="AW45" s="12"/>
       <c r="AX45" s="3"/>
       <c r="AY45" s="3"/>
       <c r="AZ45" s="3"/>
-      <c r="BA45" s="2"/>
+      <c r="BA45" s="12"/>
     </row>
     <row r="46" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="2"/>
+      <c r="Z46" s="12"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="2"/>
+      <c r="AD46" s="12"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="2"/>
+      <c r="AF46" s="12"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -2909,16 +3000,16 @@
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
-      <c r="AW46" s="2"/>
+      <c r="AW46" s="12"/>
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
       <c r="AZ46" s="3"/>
-      <c r="BA46" s="2"/>
+      <c r="BA46" s="12"/>
     </row>
     <row r="47" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2934,16 +3025,16 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="4"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="2"/>
+      <c r="Z47" s="12"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="2"/>
+      <c r="AD47" s="12"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3" t="s">
         <v>2</v>
@@ -2952,10 +3043,10 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="4"/>
       <c r="AM47" s="2"/>
-      <c r="AN47" s="11"/>
+      <c r="AN47" s="5"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
@@ -2964,16 +3055,16 @@
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
-      <c r="AW47" s="2"/>
+      <c r="AW47" s="12"/>
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
       <c r="AZ47" s="3"/>
-      <c r="BA47" s="2"/>
+      <c r="BA47" s="12"/>
     </row>
     <row r="48" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2989,26 +3080,26 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="4"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="2"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="2"/>
+      <c r="AD48" s="12"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="4"/>
       <c r="AM48" s="2"/>
-      <c r="AN48" s="11"/>
+      <c r="AN48" s="5"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
@@ -3017,16 +3108,16 @@
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
-      <c r="AW48" s="2"/>
+      <c r="AW48" s="12"/>
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
       <c r="AZ48" s="3"/>
-      <c r="BA48" s="2"/>
+      <c r="BA48" s="12"/>
     </row>
     <row r="49" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3042,26 +3133,26 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="4"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="2"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="2"/>
+      <c r="AD49" s="12"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="4"/>
       <c r="AM49" s="2"/>
-      <c r="AN49" s="11"/>
+      <c r="AN49" s="5"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
@@ -3070,22 +3161,22 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
-      <c r="AW49" s="2"/>
+      <c r="AW49" s="12"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
-      <c r="BA49" s="2"/>
+      <c r="BA49" s="12"/>
     </row>
     <row r="50" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="2"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -3094,25 +3185,25 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="5"/>
+      <c r="T50" s="7"/>
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="5"/>
+      <c r="X50" s="7"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="2"/>
+      <c r="Z50" s="12"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="2"/>
+      <c r="AD50" s="12"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="2"/>
+      <c r="AF50" s="12"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="4"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
@@ -3126,19 +3217,19 @@
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
       <c r="AY50" s="3"/>
-      <c r="AZ50" s="6"/>
-      <c r="BA50" s="2"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="12"/>
     </row>
     <row r="51" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="2"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3147,25 +3238,25 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="5"/>
+      <c r="T51" s="7"/>
       <c r="U51" s="2"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="5"/>
+      <c r="X51" s="7"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="2"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="2"/>
+      <c r="AD51" s="12"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="2"/>
+      <c r="AF51" s="12"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="4"/>
       <c r="AM51" s="2"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
@@ -3179,19 +3270,19 @@
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
-      <c r="AZ51" s="6"/>
-      <c r="BA51" s="2"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="12"/>
     </row>
     <row r="52" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="2"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3200,25 +3291,25 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="5"/>
+      <c r="T52" s="7"/>
       <c r="U52" s="2"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="5"/>
+      <c r="X52" s="7"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="2"/>
+      <c r="Z52" s="12"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="2"/>
+      <c r="AD52" s="12"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="2"/>
+      <c r="AF52" s="12"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="4"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
@@ -3232,167 +3323,167 @@
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
       <c r="AY52" s="3"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="2"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="12"/>
     </row>
     <row r="53" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="2"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="2"/>
+      <c r="AD53" s="12"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
       <c r="AO53" s="3"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="12"/>
+      <c r="BA53" s="12"/>
     </row>
     <row r="54" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="2"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="2"/>
+      <c r="AD54" s="12"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
       <c r="AO54" s="3"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
     </row>
     <row r="55" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="2"/>
+      <c r="Z55" s="12"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="2"/>
+      <c r="AD55" s="12"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
       <c r="AO55" s="3"/>
-      <c r="AP55" s="2"/>
-      <c r="AQ55" s="2"/>
-      <c r="AR55" s="2"/>
-      <c r="AS55" s="2"/>
-      <c r="AT55" s="2"/>
-      <c r="AU55" s="2"/>
-      <c r="AV55" s="2"/>
-      <c r="AW55" s="2"/>
-      <c r="AX55" s="2"/>
-      <c r="AY55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
     </row>
     <row r="56" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
@@ -3653,30 +3744,30 @@
       <c r="AF63" s="1"/>
     </row>
     <row r="64" spans="3:53" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
@@ -3685,30 +3776,30 @@
       <c r="AF64" s="1"/>
     </row>
     <row r="65" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
@@ -3717,37 +3808,37 @@
       <c r="AF65" s="1"/>
     </row>
     <row r="66" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
     </row>
     <row r="67" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="4"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3757,23 +3848,23 @@
       <c r="N67" s="3"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="4"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="6"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
+      <c r="T67" s="12"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="5"/>
+      <c r="V67" s="7"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="2"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="12"/>
     </row>
     <row r="68" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="4"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3783,23 +3874,23 @@
       <c r="N68" s="3"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="4"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="6"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
+      <c r="T68" s="12"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="5"/>
+      <c r="V68" s="7"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="2"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="12"/>
     </row>
     <row r="69" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="4"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3809,178 +3900,178 @@
       <c r="N69" s="3"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="4"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="6"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
+      <c r="T69" s="12"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="5"/>
+      <c r="V69" s="7"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="2"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="12"/>
     </row>
     <row r="70" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
+      <c r="Q70" s="12"/>
       <c r="R70" s="3"/>
       <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
+      <c r="T70" s="12"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="2"/>
+      <c r="Z70" s="12"/>
     </row>
     <row r="71" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+      <c r="Q71" s="12"/>
       <c r="R71" s="3"/>
       <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
+      <c r="T71" s="12"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-      <c r="Z71" s="2"/>
+      <c r="Z71" s="12"/>
     </row>
     <row r="72" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
+      <c r="Q72" s="12"/>
       <c r="R72" s="3"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
+      <c r="T72" s="12"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="2"/>
+      <c r="Z72" s="12"/>
     </row>
     <row r="73" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="7"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
+      <c r="Q73" s="12"/>
       <c r="R73" s="3"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
+      <c r="T73" s="12"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="2"/>
+      <c r="Z73" s="12"/>
     </row>
     <row r="74" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="5"/>
+      <c r="N74" s="7"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
+      <c r="Q74" s="12"/>
       <c r="R74" s="3"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
+      <c r="T74" s="12"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
-      <c r="Z74" s="2"/>
+      <c r="Z74" s="12"/>
     </row>
     <row r="75" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="5"/>
+      <c r="N75" s="7"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
+      <c r="Q75" s="12"/>
       <c r="R75" s="3"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
+      <c r="T75" s="12"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="2"/>
+      <c r="Z75" s="12"/>
     </row>
     <row r="76" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -3991,22 +4082,22 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
+      <c r="Q76" s="12"/>
       <c r="R76" s="3"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="5"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="7"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="2"/>
+      <c r="Z76" s="12"/>
     </row>
     <row r="77" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -4017,22 +4108,22 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
+      <c r="Q77" s="12"/>
       <c r="R77" s="3"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="5"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="7"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="2"/>
+      <c r="Z77" s="12"/>
     </row>
     <row r="78" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -4043,22 +4134,22 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
+      <c r="Q78" s="12"/>
       <c r="R78" s="3"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="5"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="7"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-      <c r="Z78" s="2"/>
+      <c r="Z78" s="12"/>
     </row>
     <row r="79" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -4068,23 +4159,23 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="2"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="12"/>
       <c r="R79" s="3"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
+      <c r="T79" s="12"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="2"/>
+      <c r="Z79" s="12"/>
     </row>
     <row r="80" spans="3:32" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -4094,23 +4185,23 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="2"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="12"/>
       <c r="R80" s="3"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
+      <c r="T80" s="12"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-      <c r="Z80" s="2"/>
+      <c r="Z80" s="12"/>
     </row>
     <row r="81" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -4120,20 +4211,20 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="2"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="12"/>
       <c r="R81" s="3"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
+      <c r="T81" s="12"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-      <c r="Z81" s="2"/>
+      <c r="Z81" s="12"/>
     </row>
     <row r="82" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4147,7 +4238,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="2"/>
+      <c r="Q82" s="12"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -4156,10 +4247,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="2"/>
+      <c r="Z82" s="12"/>
     </row>
     <row r="83" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4173,7 +4264,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="2"/>
+      <c r="Q83" s="12"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -4182,10 +4273,10 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="2"/>
+      <c r="Z83" s="12"/>
     </row>
     <row r="84" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4199,7 +4290,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="2"/>
+      <c r="Q84" s="12"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -4208,16 +4299,16 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="2"/>
+      <c r="Z84" s="12"/>
     </row>
     <row r="85" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="3"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -4229,21 +4320,21 @@
       <c r="R85" s="2"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
     </row>
     <row r="86" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4255,21 +4346,21 @@
       <c r="R86" s="2"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
     </row>
     <row r="87" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -4281,15 +4372,15 @@
       <c r="R87" s="2"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
     </row>
     <row r="88" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="3"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -4298,7 +4389,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="5"/>
+      <c r="L88" s="7"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -4311,11 +4402,11 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="2"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="12"/>
     </row>
     <row r="89" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="3"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4324,7 +4415,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="5"/>
+      <c r="L89" s="7"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -4337,11 +4428,11 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="2"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="12"/>
     </row>
     <row r="90" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -4350,7 +4441,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="5"/>
+      <c r="L90" s="7"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -4363,24 +4454,24 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="2"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="12"/>
     </row>
     <row r="91" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -4390,23 +4481,23 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-      <c r="Z91" s="2"/>
+      <c r="Z91" s="12"/>
     </row>
     <row r="92" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
@@ -4416,23 +4507,23 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-      <c r="Z92" s="2"/>
+      <c r="Z92" s="12"/>
     </row>
     <row r="93" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -4442,11 +4533,11 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="2"/>
+      <c r="Z93" s="12"/>
     </row>
     <row r="94" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-      <c r="D94" s="5"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4468,11 +4559,11 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-      <c r="Z94" s="2"/>
+      <c r="Z94" s="12"/>
     </row>
     <row r="95" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="5"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4494,11 +4585,11 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-      <c r="Z95" s="2"/>
+      <c r="Z95" s="12"/>
     </row>
     <row r="96" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4520,23 +4611,23 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-      <c r="Z96" s="2"/>
+      <c r="Z96" s="12"/>
     </row>
     <row r="97" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
       <c r="I97" s="3"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="3"/>
-      <c r="N97" s="4"/>
+      <c r="N97" s="6"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="5"/>
+      <c r="P97" s="7"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="3"/>
@@ -4546,23 +4637,23 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="3"/>
-      <c r="Z97" s="2"/>
+      <c r="Z97" s="12"/>
     </row>
     <row r="98" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="4"/>
+      <c r="N98" s="6"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="5"/>
+      <c r="P98" s="7"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="3"/>
@@ -4572,23 +4663,23 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="3"/>
-      <c r="Z98" s="2"/>
+      <c r="Z98" s="12"/>
     </row>
     <row r="99" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="3"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="4"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="5"/>
+      <c r="P99" s="7"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="3"/>
@@ -4598,16 +4689,16 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="3"/>
-      <c r="Z99" s="2"/>
+      <c r="Z99" s="12"/>
     </row>
     <row r="100" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="5"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="7"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4621,19 +4712,19 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="5"/>
+      <c r="W100" s="7"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
-      <c r="Z100" s="2"/>
+      <c r="Z100" s="12"/>
     </row>
     <row r="101" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
-      <c r="D101" s="5"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="5"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4647,19 +4738,19 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="5"/>
+      <c r="W101" s="7"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
-      <c r="Z101" s="2"/>
+      <c r="Z101" s="12"/>
     </row>
     <row r="102" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
-      <c r="D102" s="5"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="5"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="7"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4673,103 +4764,103 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="5"/>
+      <c r="W102" s="7"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
-      <c r="Z102" s="2"/>
+      <c r="Z102" s="12"/>
     </row>
     <row r="103" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="6"/>
+      <c r="M103" s="4"/>
       <c r="N103" s="3"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
-      <c r="S103" s="4"/>
+      <c r="S103" s="6"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-      <c r="Z103" s="2"/>
+      <c r="Z103" s="12"/>
     </row>
     <row r="104" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="2"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="6"/>
+      <c r="M104" s="4"/>
       <c r="N104" s="3"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
-      <c r="S104" s="4"/>
+      <c r="S104" s="6"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-      <c r="Z104" s="2"/>
+      <c r="Z104" s="12"/>
     </row>
     <row r="105" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="2"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="6"/>
+      <c r="M105" s="4"/>
       <c r="N105" s="3"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
-      <c r="S105" s="4"/>
+      <c r="S105" s="6"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-      <c r="Z105" s="2"/>
+      <c r="Z105" s="12"/>
     </row>
     <row r="106" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="2"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
+      <c r="H106" s="12"/>
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="4"/>
+      <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
@@ -4780,22 +4871,22 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-      <c r="Z106" s="2"/>
+      <c r="Z106" s="12"/>
     </row>
     <row r="107" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="2"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
+      <c r="H107" s="12"/>
       <c r="I107" s="2"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="O107" s="4"/>
+      <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
@@ -4806,22 +4897,22 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
-      <c r="Z107" s="2"/>
+      <c r="Z107" s="12"/>
     </row>
     <row r="108" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="12"/>
       <c r="I108" s="2"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
-      <c r="O108" s="4"/>
+      <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
@@ -4832,10 +4923,10 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
-      <c r="Z108" s="2"/>
+      <c r="Z108" s="12"/>
     </row>
     <row r="109" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -4858,10 +4949,10 @@
       <c r="W109" s="2"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
-      <c r="Z109" s="2"/>
+      <c r="Z109" s="12"/>
     </row>
     <row r="110" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -4884,10 +4975,10 @@
       <c r="W110" s="2"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
-      <c r="Z110" s="2"/>
+      <c r="Z110" s="12"/>
     </row>
     <row r="111" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4910,15 +5001,15 @@
       <c r="W111" s="2"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
-      <c r="Z111" s="2"/>
+      <c r="Z111" s="12"/>
     </row>
     <row r="112" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="4"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="2"/>
+      <c r="H112" s="12"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -4935,16 +5026,16 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
       <c r="X112" s="3"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="2"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="12"/>
     </row>
     <row r="113" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="D113" s="4"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="2"/>
+      <c r="H113" s="12"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -4961,16 +5052,16 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
       <c r="X113" s="3"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="2"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="12"/>
     </row>
     <row r="114" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="D114" s="4"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="2"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -4987,480 +5078,965 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
       <c r="X114" s="3"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="2"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="12"/>
     </row>
     <row r="115" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
     </row>
     <row r="116" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
     </row>
     <row r="117" spans="3:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1298">
-    <mergeCell ref="AV53:AV55"/>
-    <mergeCell ref="AW53:AW55"/>
-    <mergeCell ref="AX53:AX55"/>
-    <mergeCell ref="AY53:AY55"/>
-    <mergeCell ref="AZ53:AZ55"/>
-    <mergeCell ref="BA53:BA55"/>
-    <mergeCell ref="P59:R61"/>
-    <mergeCell ref="AV50:AV52"/>
-    <mergeCell ref="AW50:AW52"/>
-    <mergeCell ref="AX50:AX52"/>
-    <mergeCell ref="AY50:AY52"/>
-    <mergeCell ref="AZ50:AZ52"/>
-    <mergeCell ref="BA50:BA52"/>
-    <mergeCell ref="AD53:AD55"/>
-    <mergeCell ref="AE53:AE55"/>
-    <mergeCell ref="AF53:AF55"/>
-    <mergeCell ref="AG53:AG55"/>
-    <mergeCell ref="AH53:AH55"/>
-    <mergeCell ref="AI53:AI55"/>
-    <mergeCell ref="AJ53:AJ55"/>
-    <mergeCell ref="AK53:AK55"/>
-    <mergeCell ref="AL53:AL55"/>
-    <mergeCell ref="AM53:AM55"/>
-    <mergeCell ref="AN53:AN55"/>
-    <mergeCell ref="AO53:AO55"/>
-    <mergeCell ref="AP53:AP55"/>
-    <mergeCell ref="AQ53:AQ55"/>
-    <mergeCell ref="AR53:AR55"/>
-    <mergeCell ref="AS53:AS55"/>
-    <mergeCell ref="AT53:AT55"/>
-    <mergeCell ref="AU53:AU55"/>
-    <mergeCell ref="AV47:AV49"/>
-    <mergeCell ref="AW47:AW49"/>
-    <mergeCell ref="AX47:AX49"/>
-    <mergeCell ref="AY47:AY49"/>
-    <mergeCell ref="AZ47:AZ49"/>
-    <mergeCell ref="BA47:BA49"/>
-    <mergeCell ref="AD50:AD52"/>
-    <mergeCell ref="AE50:AE52"/>
-    <mergeCell ref="AF50:AF52"/>
-    <mergeCell ref="AG50:AG52"/>
-    <mergeCell ref="AH50:AH52"/>
-    <mergeCell ref="AI50:AI52"/>
-    <mergeCell ref="AJ50:AJ52"/>
-    <mergeCell ref="AK50:AK52"/>
-    <mergeCell ref="AL50:AL52"/>
-    <mergeCell ref="AM50:AM52"/>
-    <mergeCell ref="AN50:AN52"/>
-    <mergeCell ref="AO50:AO52"/>
-    <mergeCell ref="AP50:AP52"/>
-    <mergeCell ref="AQ50:AQ52"/>
-    <mergeCell ref="AR50:AR52"/>
-    <mergeCell ref="AS50:AS52"/>
-    <mergeCell ref="AT50:AT52"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV44:AV46"/>
-    <mergeCell ref="AW44:AW46"/>
-    <mergeCell ref="AX44:AX46"/>
-    <mergeCell ref="AY44:AY46"/>
-    <mergeCell ref="AZ44:AZ46"/>
-    <mergeCell ref="BA44:BA46"/>
-    <mergeCell ref="AD47:AD49"/>
-    <mergeCell ref="AE47:AE49"/>
-    <mergeCell ref="AF47:AF49"/>
-    <mergeCell ref="AG47:AG49"/>
-    <mergeCell ref="AH47:AH49"/>
-    <mergeCell ref="AI47:AI49"/>
-    <mergeCell ref="AJ47:AJ49"/>
-    <mergeCell ref="AK47:AK49"/>
-    <mergeCell ref="AL47:AL49"/>
-    <mergeCell ref="AM47:AM49"/>
-    <mergeCell ref="AN47:AN49"/>
-    <mergeCell ref="AO47:AO49"/>
-    <mergeCell ref="AP47:AP49"/>
-    <mergeCell ref="AQ47:AQ49"/>
-    <mergeCell ref="AR47:AR49"/>
-    <mergeCell ref="AS47:AS49"/>
-    <mergeCell ref="AT47:AT49"/>
-    <mergeCell ref="AU47:AU49"/>
-    <mergeCell ref="AV41:AV43"/>
-    <mergeCell ref="AW41:AW43"/>
-    <mergeCell ref="AX41:AX43"/>
-    <mergeCell ref="AY41:AY43"/>
-    <mergeCell ref="AZ41:AZ43"/>
-    <mergeCell ref="BA41:BA43"/>
-    <mergeCell ref="AD44:AD46"/>
-    <mergeCell ref="AE44:AE46"/>
-    <mergeCell ref="AF44:AF46"/>
-    <mergeCell ref="AG44:AG46"/>
-    <mergeCell ref="AH44:AH46"/>
-    <mergeCell ref="AI44:AI46"/>
-    <mergeCell ref="AJ44:AJ46"/>
-    <mergeCell ref="AK44:AK46"/>
-    <mergeCell ref="AL44:AL46"/>
-    <mergeCell ref="AM44:AM46"/>
-    <mergeCell ref="AN44:AN46"/>
-    <mergeCell ref="AO44:AO46"/>
-    <mergeCell ref="AP44:AP46"/>
-    <mergeCell ref="AQ44:AQ46"/>
-    <mergeCell ref="AR44:AR46"/>
-    <mergeCell ref="AS44:AS46"/>
-    <mergeCell ref="AT44:AT46"/>
-    <mergeCell ref="AU44:AU46"/>
-    <mergeCell ref="AV38:AV40"/>
-    <mergeCell ref="AW38:AW40"/>
-    <mergeCell ref="AX38:AX40"/>
-    <mergeCell ref="AY38:AY40"/>
-    <mergeCell ref="AZ38:AZ40"/>
-    <mergeCell ref="BA38:BA40"/>
-    <mergeCell ref="AD41:AD43"/>
-    <mergeCell ref="AE41:AE43"/>
-    <mergeCell ref="AF41:AF43"/>
-    <mergeCell ref="AG41:AG43"/>
-    <mergeCell ref="AH41:AH43"/>
-    <mergeCell ref="AI41:AI43"/>
-    <mergeCell ref="AJ41:AJ43"/>
-    <mergeCell ref="AK41:AK43"/>
-    <mergeCell ref="AL41:AL43"/>
-    <mergeCell ref="AM41:AM43"/>
-    <mergeCell ref="AN41:AN43"/>
-    <mergeCell ref="AO41:AO43"/>
-    <mergeCell ref="AP41:AP43"/>
-    <mergeCell ref="AQ41:AQ43"/>
-    <mergeCell ref="AR41:AR43"/>
-    <mergeCell ref="AS41:AS43"/>
-    <mergeCell ref="AT41:AT43"/>
-    <mergeCell ref="AU41:AU43"/>
-    <mergeCell ref="AV35:AV37"/>
-    <mergeCell ref="AW35:AW37"/>
-    <mergeCell ref="AX35:AX37"/>
-    <mergeCell ref="AY35:AY37"/>
-    <mergeCell ref="AZ35:AZ37"/>
-    <mergeCell ref="BA35:BA37"/>
-    <mergeCell ref="AD38:AD40"/>
-    <mergeCell ref="AE38:AE40"/>
-    <mergeCell ref="AF38:AF40"/>
-    <mergeCell ref="AG38:AG40"/>
-    <mergeCell ref="AH38:AH40"/>
-    <mergeCell ref="AI38:AI40"/>
-    <mergeCell ref="AJ38:AJ40"/>
-    <mergeCell ref="AK38:AK40"/>
-    <mergeCell ref="AL38:AL40"/>
-    <mergeCell ref="AM38:AM40"/>
-    <mergeCell ref="AN38:AN40"/>
-    <mergeCell ref="AO38:AO40"/>
-    <mergeCell ref="AP38:AP40"/>
-    <mergeCell ref="AQ38:AQ40"/>
-    <mergeCell ref="AR38:AR40"/>
-    <mergeCell ref="AS38:AS40"/>
-    <mergeCell ref="AT38:AT40"/>
-    <mergeCell ref="AU38:AU40"/>
-    <mergeCell ref="AV32:AV34"/>
-    <mergeCell ref="AW32:AW34"/>
-    <mergeCell ref="AX32:AX34"/>
-    <mergeCell ref="AY32:AY34"/>
-    <mergeCell ref="AZ32:AZ34"/>
-    <mergeCell ref="BA32:BA34"/>
-    <mergeCell ref="AD35:AD37"/>
-    <mergeCell ref="AE35:AE37"/>
-    <mergeCell ref="AF35:AF37"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="AH35:AH37"/>
-    <mergeCell ref="AI35:AI37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AP35:AP37"/>
-    <mergeCell ref="AQ35:AQ37"/>
-    <mergeCell ref="AR35:AR37"/>
-    <mergeCell ref="AS35:AS37"/>
-    <mergeCell ref="AT35:AT37"/>
-    <mergeCell ref="AU35:AU37"/>
-    <mergeCell ref="AV29:AV31"/>
-    <mergeCell ref="AW29:AW31"/>
-    <mergeCell ref="AX29:AX31"/>
-    <mergeCell ref="AY29:AY31"/>
-    <mergeCell ref="AZ29:AZ31"/>
-    <mergeCell ref="BA29:BA31"/>
-    <mergeCell ref="AD32:AD34"/>
-    <mergeCell ref="AE32:AE34"/>
-    <mergeCell ref="AF32:AF34"/>
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AH32:AH34"/>
-    <mergeCell ref="AI32:AI34"/>
-    <mergeCell ref="AJ32:AJ34"/>
-    <mergeCell ref="AK32:AK34"/>
-    <mergeCell ref="AL32:AL34"/>
-    <mergeCell ref="AM32:AM34"/>
-    <mergeCell ref="AN32:AN34"/>
-    <mergeCell ref="AO32:AO34"/>
-    <mergeCell ref="AP32:AP34"/>
-    <mergeCell ref="AQ32:AQ34"/>
-    <mergeCell ref="AR32:AR34"/>
-    <mergeCell ref="AS32:AS34"/>
-    <mergeCell ref="AT32:AT34"/>
-    <mergeCell ref="AU32:AU34"/>
-    <mergeCell ref="AV26:AV28"/>
-    <mergeCell ref="AW26:AW28"/>
-    <mergeCell ref="AX26:AX28"/>
-    <mergeCell ref="AY26:AY28"/>
-    <mergeCell ref="AZ26:AZ28"/>
-    <mergeCell ref="BA26:BA28"/>
-    <mergeCell ref="AD29:AD31"/>
-    <mergeCell ref="AE29:AE31"/>
-    <mergeCell ref="AF29:AF31"/>
-    <mergeCell ref="AG29:AG31"/>
-    <mergeCell ref="AH29:AH31"/>
-    <mergeCell ref="AI29:AI31"/>
-    <mergeCell ref="AJ29:AJ31"/>
-    <mergeCell ref="AK29:AK31"/>
-    <mergeCell ref="AL29:AL31"/>
-    <mergeCell ref="AM29:AM31"/>
-    <mergeCell ref="AN29:AN31"/>
-    <mergeCell ref="AO29:AO31"/>
-    <mergeCell ref="AP29:AP31"/>
-    <mergeCell ref="AQ29:AQ31"/>
-    <mergeCell ref="AR29:AR31"/>
-    <mergeCell ref="AS29:AS31"/>
-    <mergeCell ref="AT29:AT31"/>
-    <mergeCell ref="AU29:AU31"/>
-    <mergeCell ref="AV23:AV25"/>
-    <mergeCell ref="AW23:AW25"/>
-    <mergeCell ref="AX23:AX25"/>
-    <mergeCell ref="AY23:AY25"/>
-    <mergeCell ref="AZ23:AZ25"/>
-    <mergeCell ref="BA23:BA25"/>
-    <mergeCell ref="AD26:AD28"/>
-    <mergeCell ref="AE26:AE28"/>
-    <mergeCell ref="AF26:AF28"/>
-    <mergeCell ref="AG26:AG28"/>
-    <mergeCell ref="AH26:AH28"/>
-    <mergeCell ref="AI26:AI28"/>
-    <mergeCell ref="AJ26:AJ28"/>
-    <mergeCell ref="AK26:AK28"/>
-    <mergeCell ref="AL26:AL28"/>
-    <mergeCell ref="AM26:AM28"/>
-    <mergeCell ref="AN26:AN28"/>
-    <mergeCell ref="AO26:AO28"/>
-    <mergeCell ref="AP26:AP28"/>
-    <mergeCell ref="AQ26:AQ28"/>
-    <mergeCell ref="AR26:AR28"/>
-    <mergeCell ref="AS26:AS28"/>
-    <mergeCell ref="AT26:AT28"/>
-    <mergeCell ref="AU26:AU28"/>
-    <mergeCell ref="AV20:AV22"/>
-    <mergeCell ref="AW20:AW22"/>
-    <mergeCell ref="AX20:AX22"/>
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BA20:BA22"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="AM23:AM25"/>
-    <mergeCell ref="AN23:AN25"/>
-    <mergeCell ref="AO23:AO25"/>
-    <mergeCell ref="AP23:AP25"/>
-    <mergeCell ref="AQ23:AQ25"/>
-    <mergeCell ref="AR23:AR25"/>
-    <mergeCell ref="AS23:AS25"/>
-    <mergeCell ref="AT23:AT25"/>
-    <mergeCell ref="AU23:AU25"/>
-    <mergeCell ref="AV17:AV19"/>
-    <mergeCell ref="AW17:AW19"/>
-    <mergeCell ref="AX17:AX19"/>
-    <mergeCell ref="AY17:AY19"/>
-    <mergeCell ref="AZ17:AZ19"/>
-    <mergeCell ref="BA17:BA19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AE20:AE22"/>
-    <mergeCell ref="AF20:AF22"/>
-    <mergeCell ref="AG20:AG22"/>
-    <mergeCell ref="AH20:AH22"/>
-    <mergeCell ref="AI20:AI22"/>
-    <mergeCell ref="AJ20:AJ22"/>
-    <mergeCell ref="AK20:AK22"/>
-    <mergeCell ref="AL20:AL22"/>
-    <mergeCell ref="AM20:AM22"/>
-    <mergeCell ref="AN20:AN22"/>
-    <mergeCell ref="AO20:AO22"/>
-    <mergeCell ref="AP20:AP22"/>
-    <mergeCell ref="AQ20:AQ22"/>
-    <mergeCell ref="AR20:AR22"/>
-    <mergeCell ref="AS20:AS22"/>
-    <mergeCell ref="AT20:AT22"/>
-    <mergeCell ref="AU20:AU22"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="AX14:AX16"/>
-    <mergeCell ref="AY14:AY16"/>
-    <mergeCell ref="AZ14:AZ16"/>
-    <mergeCell ref="BA14:BA16"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AF17:AF19"/>
-    <mergeCell ref="AG17:AG19"/>
-    <mergeCell ref="AH17:AH19"/>
-    <mergeCell ref="AI17:AI19"/>
-    <mergeCell ref="AJ17:AJ19"/>
-    <mergeCell ref="AK17:AK19"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="AM17:AM19"/>
-    <mergeCell ref="AN17:AN19"/>
-    <mergeCell ref="AO17:AO19"/>
-    <mergeCell ref="AP17:AP19"/>
-    <mergeCell ref="AQ17:AQ19"/>
-    <mergeCell ref="AR17:AR19"/>
-    <mergeCell ref="AS17:AS19"/>
-    <mergeCell ref="AT17:AT19"/>
-    <mergeCell ref="AU17:AU19"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="BA11:BA13"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AF14:AF16"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AK14:AK16"/>
-    <mergeCell ref="AL14:AL16"/>
-    <mergeCell ref="AM14:AM16"/>
-    <mergeCell ref="AN14:AN16"/>
-    <mergeCell ref="AO14:AO16"/>
-    <mergeCell ref="AP14:AP16"/>
-    <mergeCell ref="AQ14:AQ16"/>
-    <mergeCell ref="AR14:AR16"/>
-    <mergeCell ref="AS14:AS16"/>
-    <mergeCell ref="AT14:AT16"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AX8:AX10"/>
-    <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="AZ8:AZ10"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="AY5:AY7"/>
-    <mergeCell ref="AZ5:AZ7"/>
-    <mergeCell ref="BA5:BA7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AI8:AI10"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AL8:AL10"/>
-    <mergeCell ref="AM8:AM10"/>
-    <mergeCell ref="AN8:AN10"/>
-    <mergeCell ref="AO8:AO10"/>
-    <mergeCell ref="AP8:AP10"/>
-    <mergeCell ref="AQ8:AQ10"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AS10"/>
-    <mergeCell ref="AT8:AT10"/>
-    <mergeCell ref="AU8:AU10"/>
+  <mergeCells count="1299">
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="K115:K117"/>
+    <mergeCell ref="L115:L117"/>
+    <mergeCell ref="M115:M117"/>
+    <mergeCell ref="N115:N117"/>
+    <mergeCell ref="O115:O117"/>
+    <mergeCell ref="P115:P117"/>
+    <mergeCell ref="Q115:Q117"/>
+    <mergeCell ref="R115:R117"/>
+    <mergeCell ref="S115:S117"/>
+    <mergeCell ref="T115:T117"/>
+    <mergeCell ref="U115:U117"/>
+    <mergeCell ref="V115:V117"/>
+    <mergeCell ref="W115:W117"/>
+    <mergeCell ref="X115:X117"/>
+    <mergeCell ref="BB4:BB20"/>
+    <mergeCell ref="Y115:Y117"/>
+    <mergeCell ref="Z109:Z111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="I112:I114"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="K112:K114"/>
+    <mergeCell ref="L112:L114"/>
+    <mergeCell ref="M112:M114"/>
+    <mergeCell ref="N112:N114"/>
+    <mergeCell ref="O112:O114"/>
+    <mergeCell ref="P112:P114"/>
+    <mergeCell ref="Q112:Q114"/>
+    <mergeCell ref="R112:R114"/>
+    <mergeCell ref="S112:S114"/>
+    <mergeCell ref="T112:T114"/>
+    <mergeCell ref="U112:U114"/>
+    <mergeCell ref="V112:V114"/>
+    <mergeCell ref="W112:W114"/>
+    <mergeCell ref="X112:X114"/>
+    <mergeCell ref="Z115:Z117"/>
+    <mergeCell ref="Z112:Z114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="Y112:Y114"/>
+    <mergeCell ref="Z106:Z108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="M109:M111"/>
+    <mergeCell ref="N109:N111"/>
+    <mergeCell ref="O109:O111"/>
+    <mergeCell ref="P109:P111"/>
+    <mergeCell ref="Q109:Q111"/>
+    <mergeCell ref="R109:R111"/>
+    <mergeCell ref="S109:S111"/>
+    <mergeCell ref="T109:T111"/>
+    <mergeCell ref="U109:U111"/>
+    <mergeCell ref="V109:V111"/>
+    <mergeCell ref="W109:W111"/>
+    <mergeCell ref="X109:X111"/>
+    <mergeCell ref="Y109:Y111"/>
+    <mergeCell ref="Z103:Z105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="L106:L108"/>
+    <mergeCell ref="M106:M108"/>
+    <mergeCell ref="N106:N108"/>
+    <mergeCell ref="O106:O108"/>
+    <mergeCell ref="P106:P108"/>
+    <mergeCell ref="Q106:Q108"/>
+    <mergeCell ref="R106:R108"/>
+    <mergeCell ref="S106:S108"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="U106:U108"/>
+    <mergeCell ref="V106:V108"/>
+    <mergeCell ref="W106:W108"/>
+    <mergeCell ref="X106:X108"/>
+    <mergeCell ref="Y106:Y108"/>
+    <mergeCell ref="Z100:Z102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="N103:N105"/>
+    <mergeCell ref="O103:O105"/>
+    <mergeCell ref="P103:P105"/>
+    <mergeCell ref="Q103:Q105"/>
+    <mergeCell ref="R103:R105"/>
+    <mergeCell ref="S103:S105"/>
+    <mergeCell ref="T103:T105"/>
+    <mergeCell ref="U103:U105"/>
+    <mergeCell ref="V103:V105"/>
+    <mergeCell ref="W103:W105"/>
+    <mergeCell ref="X103:X105"/>
+    <mergeCell ref="Y103:Y105"/>
+    <mergeCell ref="Z97:Z99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="N100:N102"/>
+    <mergeCell ref="O100:O102"/>
+    <mergeCell ref="P100:P102"/>
+    <mergeCell ref="Q100:Q102"/>
+    <mergeCell ref="R100:R102"/>
+    <mergeCell ref="S100:S102"/>
+    <mergeCell ref="T100:T102"/>
+    <mergeCell ref="U100:U102"/>
+    <mergeCell ref="V100:V102"/>
+    <mergeCell ref="W100:W102"/>
+    <mergeCell ref="X100:X102"/>
+    <mergeCell ref="Y100:Y102"/>
+    <mergeCell ref="Z94:Z96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="L97:L99"/>
+    <mergeCell ref="M97:M99"/>
+    <mergeCell ref="N97:N99"/>
+    <mergeCell ref="O97:O99"/>
+    <mergeCell ref="P97:P99"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R97:R99"/>
+    <mergeCell ref="S97:S99"/>
+    <mergeCell ref="T97:T99"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="V97:V99"/>
+    <mergeCell ref="W97:W99"/>
+    <mergeCell ref="X97:X99"/>
+    <mergeCell ref="Y97:Y99"/>
+    <mergeCell ref="Z91:Z93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="M94:M96"/>
+    <mergeCell ref="N94:N96"/>
+    <mergeCell ref="O94:O96"/>
+    <mergeCell ref="P94:P96"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="S94:S96"/>
+    <mergeCell ref="T94:T96"/>
+    <mergeCell ref="U94:U96"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="W94:W96"/>
+    <mergeCell ref="X94:X96"/>
+    <mergeCell ref="Y94:Y96"/>
+    <mergeCell ref="Z88:Z90"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="M91:M93"/>
+    <mergeCell ref="N91:N93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="S91:S93"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="U91:U93"/>
+    <mergeCell ref="V91:V93"/>
+    <mergeCell ref="W91:W93"/>
+    <mergeCell ref="X91:X93"/>
+    <mergeCell ref="Y91:Y93"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="M88:M90"/>
+    <mergeCell ref="N88:N90"/>
+    <mergeCell ref="O88:O90"/>
+    <mergeCell ref="P88:P90"/>
+    <mergeCell ref="Q88:Q90"/>
+    <mergeCell ref="R88:R90"/>
+    <mergeCell ref="S88:S90"/>
+    <mergeCell ref="T88:T90"/>
+    <mergeCell ref="U88:U90"/>
+    <mergeCell ref="V88:V90"/>
+    <mergeCell ref="W88:W90"/>
+    <mergeCell ref="X88:X90"/>
+    <mergeCell ref="Y88:Y90"/>
+    <mergeCell ref="Z82:Z84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z79:Z81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="N82:N84"/>
+    <mergeCell ref="O82:O84"/>
+    <mergeCell ref="P82:P84"/>
+    <mergeCell ref="Q82:Q84"/>
+    <mergeCell ref="R82:R84"/>
+    <mergeCell ref="S82:S84"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="U82:U84"/>
+    <mergeCell ref="V82:V84"/>
+    <mergeCell ref="W82:W84"/>
+    <mergeCell ref="X82:X84"/>
+    <mergeCell ref="Y82:Y84"/>
+    <mergeCell ref="Z76:Z78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="M79:M81"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="P79:P81"/>
+    <mergeCell ref="Q79:Q81"/>
+    <mergeCell ref="R79:R81"/>
+    <mergeCell ref="S79:S81"/>
+    <mergeCell ref="T79:T81"/>
+    <mergeCell ref="U79:U81"/>
+    <mergeCell ref="V79:V81"/>
+    <mergeCell ref="W79:W81"/>
+    <mergeCell ref="X79:X81"/>
+    <mergeCell ref="Y79:Y81"/>
+    <mergeCell ref="Z73:Z75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="S76:S78"/>
+    <mergeCell ref="T76:T78"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="V76:V78"/>
+    <mergeCell ref="W76:W78"/>
+    <mergeCell ref="X76:X78"/>
+    <mergeCell ref="Y76:Y78"/>
+    <mergeCell ref="Z70:Z72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="N73:N75"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="Q73:Q75"/>
+    <mergeCell ref="R73:R75"/>
+    <mergeCell ref="S73:S75"/>
+    <mergeCell ref="T73:T75"/>
+    <mergeCell ref="U73:U75"/>
+    <mergeCell ref="V73:V75"/>
+    <mergeCell ref="W73:W75"/>
+    <mergeCell ref="X73:X75"/>
+    <mergeCell ref="Y73:Y75"/>
+    <mergeCell ref="Z67:Z69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="O70:O72"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="Q70:Q72"/>
+    <mergeCell ref="R70:R72"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="T70:T72"/>
+    <mergeCell ref="U70:U72"/>
+    <mergeCell ref="V70:V72"/>
+    <mergeCell ref="W70:W72"/>
+    <mergeCell ref="X70:X72"/>
+    <mergeCell ref="Y70:Y72"/>
+    <mergeCell ref="Z64:Z66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="T67:T69"/>
+    <mergeCell ref="U67:U69"/>
+    <mergeCell ref="V67:V69"/>
+    <mergeCell ref="W67:W69"/>
+    <mergeCell ref="X67:X69"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="N64:N66"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="Y67:Y69"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="S64:S66"/>
+    <mergeCell ref="T64:T66"/>
+    <mergeCell ref="U64:U66"/>
+    <mergeCell ref="V64:V66"/>
+    <mergeCell ref="W64:W66"/>
+    <mergeCell ref="X64:X66"/>
+    <mergeCell ref="Y64:Y66"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="Y26:Y28"/>
+    <mergeCell ref="Z26:Z28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="Y29:Y31"/>
+    <mergeCell ref="Z29:Z31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="Y32:Y34"/>
+    <mergeCell ref="Z32:Z34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="Z38:Z40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="Y44:Y46"/>
+    <mergeCell ref="Z44:Z46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="Y50:Y52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Z53:Z55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="Z50:Z52"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="Z41:Z43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
     <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="AW2:AW4"/>
     <mergeCell ref="AX2:AX4"/>
@@ -5493,881 +6069,397 @@
     <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Z53:Z55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="Y50:Y52"/>
-    <mergeCell ref="Z50:Z52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="Y44:Y46"/>
-    <mergeCell ref="Z44:Z46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="Y41:Y43"/>
-    <mergeCell ref="Z41:Z43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="Y38:Y40"/>
-    <mergeCell ref="Z38:Z40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="Y32:Y34"/>
-    <mergeCell ref="Z32:Z34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="Y29:Y31"/>
-    <mergeCell ref="Z29:Z31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="Y26:Y28"/>
-    <mergeCell ref="Z26:Z28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="N64:N66"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="Y67:Y69"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="S64:S66"/>
-    <mergeCell ref="T64:T66"/>
-    <mergeCell ref="U64:U66"/>
-    <mergeCell ref="V64:V66"/>
-    <mergeCell ref="W64:W66"/>
-    <mergeCell ref="X64:X66"/>
-    <mergeCell ref="Y64:Y66"/>
-    <mergeCell ref="Y70:Y72"/>
-    <mergeCell ref="Z64:Z66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="R67:R69"/>
-    <mergeCell ref="S67:S69"/>
-    <mergeCell ref="T67:T69"/>
-    <mergeCell ref="U67:U69"/>
-    <mergeCell ref="V67:V69"/>
-    <mergeCell ref="W67:W69"/>
-    <mergeCell ref="X67:X69"/>
-    <mergeCell ref="Y73:Y75"/>
-    <mergeCell ref="Z67:Z69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="O70:O72"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="Q70:Q72"/>
-    <mergeCell ref="R70:R72"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="T70:T72"/>
-    <mergeCell ref="U70:U72"/>
-    <mergeCell ref="V70:V72"/>
-    <mergeCell ref="W70:W72"/>
-    <mergeCell ref="X70:X72"/>
-    <mergeCell ref="Y76:Y78"/>
-    <mergeCell ref="Z70:Z72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="N73:N75"/>
-    <mergeCell ref="O73:O75"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="Q73:Q75"/>
-    <mergeCell ref="R73:R75"/>
-    <mergeCell ref="S73:S75"/>
-    <mergeCell ref="T73:T75"/>
-    <mergeCell ref="U73:U75"/>
-    <mergeCell ref="V73:V75"/>
-    <mergeCell ref="W73:W75"/>
-    <mergeCell ref="X73:X75"/>
-    <mergeCell ref="Y79:Y81"/>
-    <mergeCell ref="Z73:Z75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="O76:O78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="S76:S78"/>
-    <mergeCell ref="T76:T78"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="V76:V78"/>
-    <mergeCell ref="W76:W78"/>
-    <mergeCell ref="X76:X78"/>
-    <mergeCell ref="Y82:Y84"/>
-    <mergeCell ref="Z76:Z78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="L79:L81"/>
-    <mergeCell ref="M79:M81"/>
-    <mergeCell ref="N79:N81"/>
-    <mergeCell ref="O79:O81"/>
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="Q79:Q81"/>
-    <mergeCell ref="R79:R81"/>
-    <mergeCell ref="S79:S81"/>
-    <mergeCell ref="T79:T81"/>
-    <mergeCell ref="U79:U81"/>
-    <mergeCell ref="V79:V81"/>
-    <mergeCell ref="W79:W81"/>
-    <mergeCell ref="X79:X81"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z79:Z81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="N82:N84"/>
-    <mergeCell ref="O82:O84"/>
-    <mergeCell ref="P82:P84"/>
-    <mergeCell ref="Q82:Q84"/>
-    <mergeCell ref="R82:R84"/>
-    <mergeCell ref="S82:S84"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="U82:U84"/>
-    <mergeCell ref="V82:V84"/>
-    <mergeCell ref="W82:W84"/>
-    <mergeCell ref="X82:X84"/>
-    <mergeCell ref="Y88:Y90"/>
-    <mergeCell ref="Z82:Z84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y91:Y93"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="P88:P90"/>
-    <mergeCell ref="Q88:Q90"/>
-    <mergeCell ref="R88:R90"/>
-    <mergeCell ref="S88:S90"/>
-    <mergeCell ref="T88:T90"/>
-    <mergeCell ref="U88:U90"/>
-    <mergeCell ref="V88:V90"/>
-    <mergeCell ref="W88:W90"/>
-    <mergeCell ref="X88:X90"/>
-    <mergeCell ref="Y94:Y96"/>
-    <mergeCell ref="Z88:Z90"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="M91:M93"/>
-    <mergeCell ref="N91:N93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="S91:S93"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="U91:U93"/>
-    <mergeCell ref="V91:V93"/>
-    <mergeCell ref="W91:W93"/>
-    <mergeCell ref="X91:X93"/>
-    <mergeCell ref="Y97:Y99"/>
-    <mergeCell ref="Z91:Z93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="M94:M96"/>
-    <mergeCell ref="N94:N96"/>
-    <mergeCell ref="O94:O96"/>
-    <mergeCell ref="P94:P96"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="S94:S96"/>
-    <mergeCell ref="T94:T96"/>
-    <mergeCell ref="U94:U96"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="W94:W96"/>
-    <mergeCell ref="X94:X96"/>
-    <mergeCell ref="Y100:Y102"/>
-    <mergeCell ref="Z94:Z96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="L97:L99"/>
-    <mergeCell ref="M97:M99"/>
-    <mergeCell ref="N97:N99"/>
-    <mergeCell ref="O97:O99"/>
-    <mergeCell ref="P97:P99"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R97:R99"/>
-    <mergeCell ref="S97:S99"/>
-    <mergeCell ref="T97:T99"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="V97:V99"/>
-    <mergeCell ref="W97:W99"/>
-    <mergeCell ref="X97:X99"/>
-    <mergeCell ref="Y103:Y105"/>
-    <mergeCell ref="Z97:Z99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="M100:M102"/>
-    <mergeCell ref="N100:N102"/>
-    <mergeCell ref="O100:O102"/>
-    <mergeCell ref="P100:P102"/>
-    <mergeCell ref="Q100:Q102"/>
-    <mergeCell ref="R100:R102"/>
-    <mergeCell ref="S100:S102"/>
-    <mergeCell ref="T100:T102"/>
-    <mergeCell ref="U100:U102"/>
-    <mergeCell ref="V100:V102"/>
-    <mergeCell ref="W100:W102"/>
-    <mergeCell ref="X100:X102"/>
-    <mergeCell ref="Y106:Y108"/>
-    <mergeCell ref="Z100:Z102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="M103:M105"/>
-    <mergeCell ref="N103:N105"/>
-    <mergeCell ref="O103:O105"/>
-    <mergeCell ref="P103:P105"/>
-    <mergeCell ref="Q103:Q105"/>
-    <mergeCell ref="R103:R105"/>
-    <mergeCell ref="S103:S105"/>
-    <mergeCell ref="T103:T105"/>
-    <mergeCell ref="U103:U105"/>
-    <mergeCell ref="V103:V105"/>
-    <mergeCell ref="W103:W105"/>
-    <mergeCell ref="X103:X105"/>
-    <mergeCell ref="Y109:Y111"/>
-    <mergeCell ref="Z103:Z105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="L106:L108"/>
-    <mergeCell ref="M106:M108"/>
-    <mergeCell ref="N106:N108"/>
-    <mergeCell ref="O106:O108"/>
-    <mergeCell ref="P106:P108"/>
-    <mergeCell ref="Q106:Q108"/>
-    <mergeCell ref="R106:R108"/>
-    <mergeCell ref="S106:S108"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="U106:U108"/>
-    <mergeCell ref="V106:V108"/>
-    <mergeCell ref="W106:W108"/>
-    <mergeCell ref="X106:X108"/>
-    <mergeCell ref="Y112:Y114"/>
-    <mergeCell ref="Z106:Z108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="I109:I111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="M109:M111"/>
-    <mergeCell ref="N109:N111"/>
-    <mergeCell ref="O109:O111"/>
-    <mergeCell ref="P109:P111"/>
-    <mergeCell ref="Q109:Q111"/>
-    <mergeCell ref="R109:R111"/>
-    <mergeCell ref="S109:S111"/>
-    <mergeCell ref="T109:T111"/>
-    <mergeCell ref="U109:U111"/>
-    <mergeCell ref="V109:V111"/>
-    <mergeCell ref="W109:W111"/>
-    <mergeCell ref="X109:X111"/>
-    <mergeCell ref="Y115:Y117"/>
-    <mergeCell ref="Z109:Z111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="G112:G114"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="K112:K114"/>
-    <mergeCell ref="L112:L114"/>
-    <mergeCell ref="M112:M114"/>
-    <mergeCell ref="N112:N114"/>
-    <mergeCell ref="O112:O114"/>
-    <mergeCell ref="P112:P114"/>
-    <mergeCell ref="Q112:Q114"/>
-    <mergeCell ref="R112:R114"/>
-    <mergeCell ref="S112:S114"/>
-    <mergeCell ref="T112:T114"/>
-    <mergeCell ref="U112:U114"/>
-    <mergeCell ref="V112:V114"/>
-    <mergeCell ref="W112:W114"/>
-    <mergeCell ref="X112:X114"/>
-    <mergeCell ref="Z115:Z117"/>
-    <mergeCell ref="Z112:Z114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="G115:G117"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="J115:J117"/>
-    <mergeCell ref="K115:K117"/>
-    <mergeCell ref="L115:L117"/>
-    <mergeCell ref="M115:M117"/>
-    <mergeCell ref="N115:N117"/>
-    <mergeCell ref="O115:O117"/>
-    <mergeCell ref="P115:P117"/>
-    <mergeCell ref="Q115:Q117"/>
-    <mergeCell ref="R115:R117"/>
-    <mergeCell ref="S115:S117"/>
-    <mergeCell ref="T115:T117"/>
-    <mergeCell ref="U115:U117"/>
-    <mergeCell ref="V115:V117"/>
-    <mergeCell ref="W115:W117"/>
-    <mergeCell ref="X115:X117"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="AY5:AY7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AI8:AI10"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="AO8:AO10"/>
+    <mergeCell ref="AP8:AP10"/>
+    <mergeCell ref="AQ8:AQ10"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AT8:AT10"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AX8:AX10"/>
+    <mergeCell ref="AY8:AY10"/>
+    <mergeCell ref="AZ8:AZ10"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BA11:BA13"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AK14:AK16"/>
+    <mergeCell ref="AL14:AL16"/>
+    <mergeCell ref="AM14:AM16"/>
+    <mergeCell ref="AN14:AN16"/>
+    <mergeCell ref="AO14:AO16"/>
+    <mergeCell ref="AP14:AP16"/>
+    <mergeCell ref="AQ14:AQ16"/>
+    <mergeCell ref="AR14:AR16"/>
+    <mergeCell ref="AS14:AS16"/>
+    <mergeCell ref="AT14:AT16"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="AX14:AX16"/>
+    <mergeCell ref="AY14:AY16"/>
+    <mergeCell ref="AZ14:AZ16"/>
+    <mergeCell ref="BA14:BA16"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AG17:AG19"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AJ17:AJ19"/>
+    <mergeCell ref="AK17:AK19"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AM17:AM19"/>
+    <mergeCell ref="AN17:AN19"/>
+    <mergeCell ref="AO17:AO19"/>
+    <mergeCell ref="AP17:AP19"/>
+    <mergeCell ref="AQ17:AQ19"/>
+    <mergeCell ref="AR17:AR19"/>
+    <mergeCell ref="AS17:AS19"/>
+    <mergeCell ref="AT17:AT19"/>
+    <mergeCell ref="AU17:AU19"/>
+    <mergeCell ref="AV17:AV19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="AX17:AX19"/>
+    <mergeCell ref="AY17:AY19"/>
+    <mergeCell ref="AZ17:AZ19"/>
+    <mergeCell ref="BA17:BA19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AE20:AE22"/>
+    <mergeCell ref="AF20:AF22"/>
+    <mergeCell ref="AG20:AG22"/>
+    <mergeCell ref="AH20:AH22"/>
+    <mergeCell ref="AI20:AI22"/>
+    <mergeCell ref="AJ20:AJ22"/>
+    <mergeCell ref="AK20:AK22"/>
+    <mergeCell ref="AL20:AL22"/>
+    <mergeCell ref="AM20:AM22"/>
+    <mergeCell ref="AN20:AN22"/>
+    <mergeCell ref="AO20:AO22"/>
+    <mergeCell ref="AP20:AP22"/>
+    <mergeCell ref="AQ20:AQ22"/>
+    <mergeCell ref="AR20:AR22"/>
+    <mergeCell ref="AS20:AS22"/>
+    <mergeCell ref="AT20:AT22"/>
+    <mergeCell ref="AU20:AU22"/>
+    <mergeCell ref="AV20:AV22"/>
+    <mergeCell ref="AW20:AW22"/>
+    <mergeCell ref="AX20:AX22"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BA20:BA22"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AM23:AM25"/>
+    <mergeCell ref="AN23:AN25"/>
+    <mergeCell ref="AO23:AO25"/>
+    <mergeCell ref="AP23:AP25"/>
+    <mergeCell ref="AQ23:AQ25"/>
+    <mergeCell ref="AR23:AR25"/>
+    <mergeCell ref="AS23:AS25"/>
+    <mergeCell ref="AT23:AT25"/>
+    <mergeCell ref="AU23:AU25"/>
+    <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="AW23:AW25"/>
+    <mergeCell ref="AX23:AX25"/>
+    <mergeCell ref="AY23:AY25"/>
+    <mergeCell ref="AZ23:AZ25"/>
+    <mergeCell ref="BA23:BA25"/>
+    <mergeCell ref="AD26:AD28"/>
+    <mergeCell ref="AE26:AE28"/>
+    <mergeCell ref="AF26:AF28"/>
+    <mergeCell ref="AG26:AG28"/>
+    <mergeCell ref="AH26:AH28"/>
+    <mergeCell ref="AI26:AI28"/>
+    <mergeCell ref="AJ26:AJ28"/>
+    <mergeCell ref="AK26:AK28"/>
+    <mergeCell ref="AL26:AL28"/>
+    <mergeCell ref="AM26:AM28"/>
+    <mergeCell ref="AN26:AN28"/>
+    <mergeCell ref="AO26:AO28"/>
+    <mergeCell ref="AP26:AP28"/>
+    <mergeCell ref="AQ26:AQ28"/>
+    <mergeCell ref="AR26:AR28"/>
+    <mergeCell ref="AS26:AS28"/>
+    <mergeCell ref="AT26:AT28"/>
+    <mergeCell ref="AU26:AU28"/>
+    <mergeCell ref="AV26:AV28"/>
+    <mergeCell ref="AW26:AW28"/>
+    <mergeCell ref="AX26:AX28"/>
+    <mergeCell ref="AY26:AY28"/>
+    <mergeCell ref="AZ26:AZ28"/>
+    <mergeCell ref="BA26:BA28"/>
+    <mergeCell ref="AD29:AD31"/>
+    <mergeCell ref="AE29:AE31"/>
+    <mergeCell ref="AF29:AF31"/>
+    <mergeCell ref="AG29:AG31"/>
+    <mergeCell ref="AH29:AH31"/>
+    <mergeCell ref="AI29:AI31"/>
+    <mergeCell ref="AJ29:AJ31"/>
+    <mergeCell ref="AK29:AK31"/>
+    <mergeCell ref="AL29:AL31"/>
+    <mergeCell ref="AM29:AM31"/>
+    <mergeCell ref="AN29:AN31"/>
+    <mergeCell ref="AO29:AO31"/>
+    <mergeCell ref="AP29:AP31"/>
+    <mergeCell ref="AQ29:AQ31"/>
+    <mergeCell ref="AR29:AR31"/>
+    <mergeCell ref="AS29:AS31"/>
+    <mergeCell ref="AT29:AT31"/>
+    <mergeCell ref="AU29:AU31"/>
+    <mergeCell ref="AV29:AV31"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="AX29:AX31"/>
+    <mergeCell ref="AY29:AY31"/>
+    <mergeCell ref="AZ29:AZ31"/>
+    <mergeCell ref="BA29:BA31"/>
+    <mergeCell ref="AD32:AD34"/>
+    <mergeCell ref="AE32:AE34"/>
+    <mergeCell ref="AF32:AF34"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AH32:AH34"/>
+    <mergeCell ref="AI32:AI34"/>
+    <mergeCell ref="AJ32:AJ34"/>
+    <mergeCell ref="AK32:AK34"/>
+    <mergeCell ref="AL32:AL34"/>
+    <mergeCell ref="AM32:AM34"/>
+    <mergeCell ref="AN32:AN34"/>
+    <mergeCell ref="AO32:AO34"/>
+    <mergeCell ref="AP32:AP34"/>
+    <mergeCell ref="AQ32:AQ34"/>
+    <mergeCell ref="AR32:AR34"/>
+    <mergeCell ref="AS32:AS34"/>
+    <mergeCell ref="AT32:AT34"/>
+    <mergeCell ref="AU32:AU34"/>
+    <mergeCell ref="AV32:AV34"/>
+    <mergeCell ref="AW32:AW34"/>
+    <mergeCell ref="AX32:AX34"/>
+    <mergeCell ref="AY32:AY34"/>
+    <mergeCell ref="AZ32:AZ34"/>
+    <mergeCell ref="BA32:BA34"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="AF35:AF37"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="AL35:AL37"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AP35:AP37"/>
+    <mergeCell ref="AQ35:AQ37"/>
+    <mergeCell ref="AR35:AR37"/>
+    <mergeCell ref="AS35:AS37"/>
+    <mergeCell ref="AT35:AT37"/>
+    <mergeCell ref="AU35:AU37"/>
+    <mergeCell ref="AV35:AV37"/>
+    <mergeCell ref="AW35:AW37"/>
+    <mergeCell ref="AX35:AX37"/>
+    <mergeCell ref="AY35:AY37"/>
+    <mergeCell ref="AZ35:AZ37"/>
+    <mergeCell ref="BA35:BA37"/>
+    <mergeCell ref="AD38:AD40"/>
+    <mergeCell ref="AE38:AE40"/>
+    <mergeCell ref="AF38:AF40"/>
+    <mergeCell ref="AG38:AG40"/>
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="AI38:AI40"/>
+    <mergeCell ref="AJ38:AJ40"/>
+    <mergeCell ref="AK38:AK40"/>
+    <mergeCell ref="AL38:AL40"/>
+    <mergeCell ref="AM38:AM40"/>
+    <mergeCell ref="AN38:AN40"/>
+    <mergeCell ref="AO38:AO40"/>
+    <mergeCell ref="AP38:AP40"/>
+    <mergeCell ref="AQ38:AQ40"/>
+    <mergeCell ref="AR38:AR40"/>
+    <mergeCell ref="AS38:AS40"/>
+    <mergeCell ref="AT38:AT40"/>
+    <mergeCell ref="AU38:AU40"/>
+    <mergeCell ref="AV38:AV40"/>
+    <mergeCell ref="AW38:AW40"/>
+    <mergeCell ref="AX38:AX40"/>
+    <mergeCell ref="AY38:AY40"/>
+    <mergeCell ref="AZ38:AZ40"/>
+    <mergeCell ref="BA38:BA40"/>
+    <mergeCell ref="AD41:AD43"/>
+    <mergeCell ref="AE41:AE43"/>
+    <mergeCell ref="AF41:AF43"/>
+    <mergeCell ref="AG41:AG43"/>
+    <mergeCell ref="AH41:AH43"/>
+    <mergeCell ref="AI41:AI43"/>
+    <mergeCell ref="AJ41:AJ43"/>
+    <mergeCell ref="AK41:AK43"/>
+    <mergeCell ref="AL41:AL43"/>
+    <mergeCell ref="AM41:AM43"/>
+    <mergeCell ref="AN41:AN43"/>
+    <mergeCell ref="AO41:AO43"/>
+    <mergeCell ref="AP41:AP43"/>
+    <mergeCell ref="AQ41:AQ43"/>
+    <mergeCell ref="AR41:AR43"/>
+    <mergeCell ref="AS41:AS43"/>
+    <mergeCell ref="AT41:AT43"/>
+    <mergeCell ref="AU41:AU43"/>
+    <mergeCell ref="AV41:AV43"/>
+    <mergeCell ref="AW41:AW43"/>
+    <mergeCell ref="AX41:AX43"/>
+    <mergeCell ref="AY41:AY43"/>
+    <mergeCell ref="AZ41:AZ43"/>
+    <mergeCell ref="BA41:BA43"/>
+    <mergeCell ref="AD44:AD46"/>
+    <mergeCell ref="AE44:AE46"/>
+    <mergeCell ref="AF44:AF46"/>
+    <mergeCell ref="AG44:AG46"/>
+    <mergeCell ref="AH44:AH46"/>
+    <mergeCell ref="AI44:AI46"/>
+    <mergeCell ref="AJ44:AJ46"/>
+    <mergeCell ref="AK44:AK46"/>
+    <mergeCell ref="AL44:AL46"/>
+    <mergeCell ref="AM44:AM46"/>
+    <mergeCell ref="AN44:AN46"/>
+    <mergeCell ref="AO44:AO46"/>
+    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="AQ44:AQ46"/>
+    <mergeCell ref="AR44:AR46"/>
+    <mergeCell ref="AS44:AS46"/>
+    <mergeCell ref="AT44:AT46"/>
+    <mergeCell ref="AU44:AU46"/>
+    <mergeCell ref="AV44:AV46"/>
+    <mergeCell ref="AW44:AW46"/>
+    <mergeCell ref="AX44:AX46"/>
+    <mergeCell ref="AY44:AY46"/>
+    <mergeCell ref="AZ44:AZ46"/>
+    <mergeCell ref="BA44:BA46"/>
+    <mergeCell ref="AD47:AD49"/>
+    <mergeCell ref="AE47:AE49"/>
+    <mergeCell ref="AF47:AF49"/>
+    <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="AH47:AH49"/>
+    <mergeCell ref="AI47:AI49"/>
+    <mergeCell ref="AJ47:AJ49"/>
+    <mergeCell ref="AK47:AK49"/>
+    <mergeCell ref="AL47:AL49"/>
+    <mergeCell ref="AM47:AM49"/>
+    <mergeCell ref="AN47:AN49"/>
+    <mergeCell ref="AO47:AO49"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AQ47:AQ49"/>
+    <mergeCell ref="AR47:AR49"/>
+    <mergeCell ref="AS47:AS49"/>
+    <mergeCell ref="AT47:AT49"/>
+    <mergeCell ref="AU47:AU49"/>
+    <mergeCell ref="AV47:AV49"/>
+    <mergeCell ref="AW47:AW49"/>
+    <mergeCell ref="AX47:AX49"/>
+    <mergeCell ref="AY47:AY49"/>
+    <mergeCell ref="AZ47:AZ49"/>
+    <mergeCell ref="BA47:BA49"/>
+    <mergeCell ref="AD50:AD52"/>
+    <mergeCell ref="AE50:AE52"/>
+    <mergeCell ref="AF50:AF52"/>
+    <mergeCell ref="AG50:AG52"/>
+    <mergeCell ref="AH50:AH52"/>
+    <mergeCell ref="AI50:AI52"/>
+    <mergeCell ref="AJ50:AJ52"/>
+    <mergeCell ref="AK50:AK52"/>
+    <mergeCell ref="AL50:AL52"/>
+    <mergeCell ref="AM50:AM52"/>
+    <mergeCell ref="AN50:AN52"/>
+    <mergeCell ref="AO50:AO52"/>
+    <mergeCell ref="AP50:AP52"/>
+    <mergeCell ref="AQ50:AQ52"/>
+    <mergeCell ref="AR50:AR52"/>
+    <mergeCell ref="AS50:AS52"/>
+    <mergeCell ref="AT50:AT52"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV53:AV55"/>
+    <mergeCell ref="AW53:AW55"/>
+    <mergeCell ref="AX53:AX55"/>
+    <mergeCell ref="AY53:AY55"/>
+    <mergeCell ref="AZ53:AZ55"/>
+    <mergeCell ref="BA53:BA55"/>
+    <mergeCell ref="P59:R61"/>
+    <mergeCell ref="AV50:AV52"/>
+    <mergeCell ref="AW50:AW52"/>
+    <mergeCell ref="AX50:AX52"/>
+    <mergeCell ref="AY50:AY52"/>
+    <mergeCell ref="AZ50:AZ52"/>
+    <mergeCell ref="BA50:BA52"/>
+    <mergeCell ref="AD53:AD55"/>
+    <mergeCell ref="AE53:AE55"/>
+    <mergeCell ref="AF53:AF55"/>
+    <mergeCell ref="AG53:AG55"/>
+    <mergeCell ref="AH53:AH55"/>
+    <mergeCell ref="AI53:AI55"/>
+    <mergeCell ref="AJ53:AJ55"/>
+    <mergeCell ref="AK53:AK55"/>
+    <mergeCell ref="AL53:AL55"/>
+    <mergeCell ref="AM53:AM55"/>
+    <mergeCell ref="AN53:AN55"/>
+    <mergeCell ref="AO53:AO55"/>
+    <mergeCell ref="AP53:AP55"/>
+    <mergeCell ref="AQ53:AQ55"/>
+    <mergeCell ref="AR53:AR55"/>
+    <mergeCell ref="AS53:AS55"/>
+    <mergeCell ref="AT53:AT55"/>
+    <mergeCell ref="AU53:AU55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
